--- a/InputData/elec/BTaDLP/BAU Trans and Distr Loss Perc.xlsx
+++ b/InputData/elec/BTaDLP/BAU Trans and Distr Loss Perc.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="MER 7.1" sheetId="5" r:id="rId2"/>
+    <sheet name="MER 7.1" sheetId="6" r:id="rId2"/>
     <sheet name="Calculations" sheetId="4" r:id="rId3"/>
     <sheet name="BTaDLP" sheetId="2" r:id="rId4"/>
   </sheets>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="30">
   <si>
     <t>Source:</t>
   </si>
@@ -31,34 +31,16 @@
     <t>Transmission and Distribution Loss Percentage</t>
   </si>
   <si>
-    <t>billion kWh</t>
-  </si>
-  <si>
     <t>Trans and Dist Loss Perc</t>
   </si>
   <si>
-    <t>Electricity</t>
-  </si>
-  <si>
     <t>BTaDLP BAU Transmission and Distribution Loss Percentage</t>
-  </si>
-  <si>
-    <t>January 2016 Monthly Energy Review</t>
   </si>
   <si>
     <t>http://www.eia.gov/totalenergy/data/monthly/#electricity</t>
   </si>
   <si>
     <t>U.S. Energy Information Administration</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Release Date: January 27, 2016</t>
-  </si>
-  <si>
-    <t>Next Update: February 24, 2016</t>
   </si>
   <si>
     <t>Table 7.1 Electricity Overview</t>
@@ -100,16 +82,31 @@
     <t>Electricity End Use, Total</t>
   </si>
   <si>
-    <t>(Billion Kilowatthours)</t>
-  </si>
-  <si>
     <t>Not Available</t>
   </si>
   <si>
-    <t>Table 7.1, Tab "Annual Data", Row "2014"</t>
+    <t>Net Generation: Electric Power Sector</t>
   </si>
   <si>
-    <t>Net Generation: Electric Power Sector</t>
+    <t>Billion Kilowatthours</t>
+  </si>
+  <si>
+    <t>Next Update: October 26, 2016</t>
+  </si>
+  <si>
+    <t>Release Date: September 25, 2016</t>
+  </si>
+  <si>
+    <t>September 2016 Monthly Energy Review</t>
+  </si>
+  <si>
+    <t>No meaningful trend since 2000, so we assume T&amp;D losses going forward are constant at the average value for this period.</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Table 7.1, Tab "Annual Data"</t>
   </si>
 </sst>
 </file>
@@ -119,7 +116,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,36 +141,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <i/>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
       <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,11 +194,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -208,19 +210,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -230,6 +235,185 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculations!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>6.6944071098814603E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6301959775455837E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.69968403047973E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1157289973365822E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9824806478379145E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8991223394440859E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8135044422103247E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4342197409809851E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1973548372324628E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8415000431776993E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6530543607796436E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.4533940396931652E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.7531060123515632E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5453036402503759E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.18602525829927E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.3923968962333539E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="15804288"/>
+        <c:axId val="15805824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="15804288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="15805824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="15805824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="15804288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -527,7 +711,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -545,12 +729,12 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -572,3340 +756,2983 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.7109375" customWidth="1"/>
-    <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" customWidth="1"/>
-    <col min="4" max="4" width="42.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" customWidth="1"/>
-    <col min="6" max="8" width="22.28515625" customWidth="1"/>
-    <col min="9" max="9" width="57.85546875" customWidth="1"/>
-    <col min="10" max="10" width="28.140625" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" customWidth="1"/>
-    <col min="257" max="257" width="53.7109375" customWidth="1"/>
-    <col min="258" max="258" width="47" customWidth="1"/>
-    <col min="259" max="259" width="44.7109375" customWidth="1"/>
-    <col min="260" max="260" width="42.140625" customWidth="1"/>
-    <col min="261" max="261" width="31.140625" customWidth="1"/>
-    <col min="262" max="264" width="22.28515625" customWidth="1"/>
-    <col min="265" max="265" width="57.85546875" customWidth="1"/>
-    <col min="266" max="266" width="28.140625" customWidth="1"/>
-    <col min="267" max="267" width="22.28515625" customWidth="1"/>
-    <col min="268" max="268" width="24.85546875" customWidth="1"/>
-    <col min="513" max="513" width="53.7109375" customWidth="1"/>
-    <col min="514" max="514" width="47" customWidth="1"/>
-    <col min="515" max="515" width="44.7109375" customWidth="1"/>
-    <col min="516" max="516" width="42.140625" customWidth="1"/>
-    <col min="517" max="517" width="31.140625" customWidth="1"/>
-    <col min="518" max="520" width="22.28515625" customWidth="1"/>
-    <col min="521" max="521" width="57.85546875" customWidth="1"/>
-    <col min="522" max="522" width="28.140625" customWidth="1"/>
-    <col min="523" max="523" width="22.28515625" customWidth="1"/>
-    <col min="524" max="524" width="24.85546875" customWidth="1"/>
-    <col min="769" max="769" width="53.7109375" customWidth="1"/>
-    <col min="770" max="770" width="47" customWidth="1"/>
-    <col min="771" max="771" width="44.7109375" customWidth="1"/>
-    <col min="772" max="772" width="42.140625" customWidth="1"/>
-    <col min="773" max="773" width="31.140625" customWidth="1"/>
-    <col min="774" max="776" width="22.28515625" customWidth="1"/>
-    <col min="777" max="777" width="57.85546875" customWidth="1"/>
-    <col min="778" max="778" width="28.140625" customWidth="1"/>
-    <col min="779" max="779" width="22.28515625" customWidth="1"/>
-    <col min="780" max="780" width="24.85546875" customWidth="1"/>
-    <col min="1025" max="1025" width="53.7109375" customWidth="1"/>
-    <col min="1026" max="1026" width="47" customWidth="1"/>
-    <col min="1027" max="1027" width="44.7109375" customWidth="1"/>
-    <col min="1028" max="1028" width="42.140625" customWidth="1"/>
-    <col min="1029" max="1029" width="31.140625" customWidth="1"/>
-    <col min="1030" max="1032" width="22.28515625" customWidth="1"/>
-    <col min="1033" max="1033" width="57.85546875" customWidth="1"/>
-    <col min="1034" max="1034" width="28.140625" customWidth="1"/>
-    <col min="1035" max="1035" width="22.28515625" customWidth="1"/>
-    <col min="1036" max="1036" width="24.85546875" customWidth="1"/>
-    <col min="1281" max="1281" width="53.7109375" customWidth="1"/>
-    <col min="1282" max="1282" width="47" customWidth="1"/>
-    <col min="1283" max="1283" width="44.7109375" customWidth="1"/>
-    <col min="1284" max="1284" width="42.140625" customWidth="1"/>
-    <col min="1285" max="1285" width="31.140625" customWidth="1"/>
-    <col min="1286" max="1288" width="22.28515625" customWidth="1"/>
-    <col min="1289" max="1289" width="57.85546875" customWidth="1"/>
-    <col min="1290" max="1290" width="28.140625" customWidth="1"/>
-    <col min="1291" max="1291" width="22.28515625" customWidth="1"/>
-    <col min="1292" max="1292" width="24.85546875" customWidth="1"/>
-    <col min="1537" max="1537" width="53.7109375" customWidth="1"/>
-    <col min="1538" max="1538" width="47" customWidth="1"/>
-    <col min="1539" max="1539" width="44.7109375" customWidth="1"/>
-    <col min="1540" max="1540" width="42.140625" customWidth="1"/>
-    <col min="1541" max="1541" width="31.140625" customWidth="1"/>
-    <col min="1542" max="1544" width="22.28515625" customWidth="1"/>
-    <col min="1545" max="1545" width="57.85546875" customWidth="1"/>
-    <col min="1546" max="1546" width="28.140625" customWidth="1"/>
-    <col min="1547" max="1547" width="22.28515625" customWidth="1"/>
-    <col min="1548" max="1548" width="24.85546875" customWidth="1"/>
-    <col min="1793" max="1793" width="53.7109375" customWidth="1"/>
-    <col min="1794" max="1794" width="47" customWidth="1"/>
-    <col min="1795" max="1795" width="44.7109375" customWidth="1"/>
-    <col min="1796" max="1796" width="42.140625" customWidth="1"/>
-    <col min="1797" max="1797" width="31.140625" customWidth="1"/>
-    <col min="1798" max="1800" width="22.28515625" customWidth="1"/>
-    <col min="1801" max="1801" width="57.85546875" customWidth="1"/>
-    <col min="1802" max="1802" width="28.140625" customWidth="1"/>
-    <col min="1803" max="1803" width="22.28515625" customWidth="1"/>
-    <col min="1804" max="1804" width="24.85546875" customWidth="1"/>
-    <col min="2049" max="2049" width="53.7109375" customWidth="1"/>
-    <col min="2050" max="2050" width="47" customWidth="1"/>
-    <col min="2051" max="2051" width="44.7109375" customWidth="1"/>
-    <col min="2052" max="2052" width="42.140625" customWidth="1"/>
-    <col min="2053" max="2053" width="31.140625" customWidth="1"/>
-    <col min="2054" max="2056" width="22.28515625" customWidth="1"/>
-    <col min="2057" max="2057" width="57.85546875" customWidth="1"/>
-    <col min="2058" max="2058" width="28.140625" customWidth="1"/>
-    <col min="2059" max="2059" width="22.28515625" customWidth="1"/>
-    <col min="2060" max="2060" width="24.85546875" customWidth="1"/>
-    <col min="2305" max="2305" width="53.7109375" customWidth="1"/>
-    <col min="2306" max="2306" width="47" customWidth="1"/>
-    <col min="2307" max="2307" width="44.7109375" customWidth="1"/>
-    <col min="2308" max="2308" width="42.140625" customWidth="1"/>
-    <col min="2309" max="2309" width="31.140625" customWidth="1"/>
-    <col min="2310" max="2312" width="22.28515625" customWidth="1"/>
-    <col min="2313" max="2313" width="57.85546875" customWidth="1"/>
-    <col min="2314" max="2314" width="28.140625" customWidth="1"/>
-    <col min="2315" max="2315" width="22.28515625" customWidth="1"/>
-    <col min="2316" max="2316" width="24.85546875" customWidth="1"/>
-    <col min="2561" max="2561" width="53.7109375" customWidth="1"/>
-    <col min="2562" max="2562" width="47" customWidth="1"/>
-    <col min="2563" max="2563" width="44.7109375" customWidth="1"/>
-    <col min="2564" max="2564" width="42.140625" customWidth="1"/>
-    <col min="2565" max="2565" width="31.140625" customWidth="1"/>
-    <col min="2566" max="2568" width="22.28515625" customWidth="1"/>
-    <col min="2569" max="2569" width="57.85546875" customWidth="1"/>
-    <col min="2570" max="2570" width="28.140625" customWidth="1"/>
-    <col min="2571" max="2571" width="22.28515625" customWidth="1"/>
-    <col min="2572" max="2572" width="24.85546875" customWidth="1"/>
-    <col min="2817" max="2817" width="53.7109375" customWidth="1"/>
-    <col min="2818" max="2818" width="47" customWidth="1"/>
-    <col min="2819" max="2819" width="44.7109375" customWidth="1"/>
-    <col min="2820" max="2820" width="42.140625" customWidth="1"/>
-    <col min="2821" max="2821" width="31.140625" customWidth="1"/>
-    <col min="2822" max="2824" width="22.28515625" customWidth="1"/>
-    <col min="2825" max="2825" width="57.85546875" customWidth="1"/>
-    <col min="2826" max="2826" width="28.140625" customWidth="1"/>
-    <col min="2827" max="2827" width="22.28515625" customWidth="1"/>
-    <col min="2828" max="2828" width="24.85546875" customWidth="1"/>
-    <col min="3073" max="3073" width="53.7109375" customWidth="1"/>
-    <col min="3074" max="3074" width="47" customWidth="1"/>
-    <col min="3075" max="3075" width="44.7109375" customWidth="1"/>
-    <col min="3076" max="3076" width="42.140625" customWidth="1"/>
-    <col min="3077" max="3077" width="31.140625" customWidth="1"/>
-    <col min="3078" max="3080" width="22.28515625" customWidth="1"/>
-    <col min="3081" max="3081" width="57.85546875" customWidth="1"/>
-    <col min="3082" max="3082" width="28.140625" customWidth="1"/>
-    <col min="3083" max="3083" width="22.28515625" customWidth="1"/>
-    <col min="3084" max="3084" width="24.85546875" customWidth="1"/>
-    <col min="3329" max="3329" width="53.7109375" customWidth="1"/>
-    <col min="3330" max="3330" width="47" customWidth="1"/>
-    <col min="3331" max="3331" width="44.7109375" customWidth="1"/>
-    <col min="3332" max="3332" width="42.140625" customWidth="1"/>
-    <col min="3333" max="3333" width="31.140625" customWidth="1"/>
-    <col min="3334" max="3336" width="22.28515625" customWidth="1"/>
-    <col min="3337" max="3337" width="57.85546875" customWidth="1"/>
-    <col min="3338" max="3338" width="28.140625" customWidth="1"/>
-    <col min="3339" max="3339" width="22.28515625" customWidth="1"/>
-    <col min="3340" max="3340" width="24.85546875" customWidth="1"/>
-    <col min="3585" max="3585" width="53.7109375" customWidth="1"/>
-    <col min="3586" max="3586" width="47" customWidth="1"/>
-    <col min="3587" max="3587" width="44.7109375" customWidth="1"/>
-    <col min="3588" max="3588" width="42.140625" customWidth="1"/>
-    <col min="3589" max="3589" width="31.140625" customWidth="1"/>
-    <col min="3590" max="3592" width="22.28515625" customWidth="1"/>
-    <col min="3593" max="3593" width="57.85546875" customWidth="1"/>
-    <col min="3594" max="3594" width="28.140625" customWidth="1"/>
-    <col min="3595" max="3595" width="22.28515625" customWidth="1"/>
-    <col min="3596" max="3596" width="24.85546875" customWidth="1"/>
-    <col min="3841" max="3841" width="53.7109375" customWidth="1"/>
-    <col min="3842" max="3842" width="47" customWidth="1"/>
-    <col min="3843" max="3843" width="44.7109375" customWidth="1"/>
-    <col min="3844" max="3844" width="42.140625" customWidth="1"/>
-    <col min="3845" max="3845" width="31.140625" customWidth="1"/>
-    <col min="3846" max="3848" width="22.28515625" customWidth="1"/>
-    <col min="3849" max="3849" width="57.85546875" customWidth="1"/>
-    <col min="3850" max="3850" width="28.140625" customWidth="1"/>
-    <col min="3851" max="3851" width="22.28515625" customWidth="1"/>
-    <col min="3852" max="3852" width="24.85546875" customWidth="1"/>
-    <col min="4097" max="4097" width="53.7109375" customWidth="1"/>
-    <col min="4098" max="4098" width="47" customWidth="1"/>
-    <col min="4099" max="4099" width="44.7109375" customWidth="1"/>
-    <col min="4100" max="4100" width="42.140625" customWidth="1"/>
-    <col min="4101" max="4101" width="31.140625" customWidth="1"/>
-    <col min="4102" max="4104" width="22.28515625" customWidth="1"/>
-    <col min="4105" max="4105" width="57.85546875" customWidth="1"/>
-    <col min="4106" max="4106" width="28.140625" customWidth="1"/>
-    <col min="4107" max="4107" width="22.28515625" customWidth="1"/>
-    <col min="4108" max="4108" width="24.85546875" customWidth="1"/>
-    <col min="4353" max="4353" width="53.7109375" customWidth="1"/>
-    <col min="4354" max="4354" width="47" customWidth="1"/>
-    <col min="4355" max="4355" width="44.7109375" customWidth="1"/>
-    <col min="4356" max="4356" width="42.140625" customWidth="1"/>
-    <col min="4357" max="4357" width="31.140625" customWidth="1"/>
-    <col min="4358" max="4360" width="22.28515625" customWidth="1"/>
-    <col min="4361" max="4361" width="57.85546875" customWidth="1"/>
-    <col min="4362" max="4362" width="28.140625" customWidth="1"/>
-    <col min="4363" max="4363" width="22.28515625" customWidth="1"/>
-    <col min="4364" max="4364" width="24.85546875" customWidth="1"/>
-    <col min="4609" max="4609" width="53.7109375" customWidth="1"/>
-    <col min="4610" max="4610" width="47" customWidth="1"/>
-    <col min="4611" max="4611" width="44.7109375" customWidth="1"/>
-    <col min="4612" max="4612" width="42.140625" customWidth="1"/>
-    <col min="4613" max="4613" width="31.140625" customWidth="1"/>
-    <col min="4614" max="4616" width="22.28515625" customWidth="1"/>
-    <col min="4617" max="4617" width="57.85546875" customWidth="1"/>
-    <col min="4618" max="4618" width="28.140625" customWidth="1"/>
-    <col min="4619" max="4619" width="22.28515625" customWidth="1"/>
-    <col min="4620" max="4620" width="24.85546875" customWidth="1"/>
-    <col min="4865" max="4865" width="53.7109375" customWidth="1"/>
-    <col min="4866" max="4866" width="47" customWidth="1"/>
-    <col min="4867" max="4867" width="44.7109375" customWidth="1"/>
-    <col min="4868" max="4868" width="42.140625" customWidth="1"/>
-    <col min="4869" max="4869" width="31.140625" customWidth="1"/>
-    <col min="4870" max="4872" width="22.28515625" customWidth="1"/>
-    <col min="4873" max="4873" width="57.85546875" customWidth="1"/>
-    <col min="4874" max="4874" width="28.140625" customWidth="1"/>
-    <col min="4875" max="4875" width="22.28515625" customWidth="1"/>
-    <col min="4876" max="4876" width="24.85546875" customWidth="1"/>
-    <col min="5121" max="5121" width="53.7109375" customWidth="1"/>
-    <col min="5122" max="5122" width="47" customWidth="1"/>
-    <col min="5123" max="5123" width="44.7109375" customWidth="1"/>
-    <col min="5124" max="5124" width="42.140625" customWidth="1"/>
-    <col min="5125" max="5125" width="31.140625" customWidth="1"/>
-    <col min="5126" max="5128" width="22.28515625" customWidth="1"/>
-    <col min="5129" max="5129" width="57.85546875" customWidth="1"/>
-    <col min="5130" max="5130" width="28.140625" customWidth="1"/>
-    <col min="5131" max="5131" width="22.28515625" customWidth="1"/>
-    <col min="5132" max="5132" width="24.85546875" customWidth="1"/>
-    <col min="5377" max="5377" width="53.7109375" customWidth="1"/>
-    <col min="5378" max="5378" width="47" customWidth="1"/>
-    <col min="5379" max="5379" width="44.7109375" customWidth="1"/>
-    <col min="5380" max="5380" width="42.140625" customWidth="1"/>
-    <col min="5381" max="5381" width="31.140625" customWidth="1"/>
-    <col min="5382" max="5384" width="22.28515625" customWidth="1"/>
-    <col min="5385" max="5385" width="57.85546875" customWidth="1"/>
-    <col min="5386" max="5386" width="28.140625" customWidth="1"/>
-    <col min="5387" max="5387" width="22.28515625" customWidth="1"/>
-    <col min="5388" max="5388" width="24.85546875" customWidth="1"/>
-    <col min="5633" max="5633" width="53.7109375" customWidth="1"/>
-    <col min="5634" max="5634" width="47" customWidth="1"/>
-    <col min="5635" max="5635" width="44.7109375" customWidth="1"/>
-    <col min="5636" max="5636" width="42.140625" customWidth="1"/>
-    <col min="5637" max="5637" width="31.140625" customWidth="1"/>
-    <col min="5638" max="5640" width="22.28515625" customWidth="1"/>
-    <col min="5641" max="5641" width="57.85546875" customWidth="1"/>
-    <col min="5642" max="5642" width="28.140625" customWidth="1"/>
-    <col min="5643" max="5643" width="22.28515625" customWidth="1"/>
-    <col min="5644" max="5644" width="24.85546875" customWidth="1"/>
-    <col min="5889" max="5889" width="53.7109375" customWidth="1"/>
-    <col min="5890" max="5890" width="47" customWidth="1"/>
-    <col min="5891" max="5891" width="44.7109375" customWidth="1"/>
-    <col min="5892" max="5892" width="42.140625" customWidth="1"/>
-    <col min="5893" max="5893" width="31.140625" customWidth="1"/>
-    <col min="5894" max="5896" width="22.28515625" customWidth="1"/>
-    <col min="5897" max="5897" width="57.85546875" customWidth="1"/>
-    <col min="5898" max="5898" width="28.140625" customWidth="1"/>
-    <col min="5899" max="5899" width="22.28515625" customWidth="1"/>
-    <col min="5900" max="5900" width="24.85546875" customWidth="1"/>
-    <col min="6145" max="6145" width="53.7109375" customWidth="1"/>
-    <col min="6146" max="6146" width="47" customWidth="1"/>
-    <col min="6147" max="6147" width="44.7109375" customWidth="1"/>
-    <col min="6148" max="6148" width="42.140625" customWidth="1"/>
-    <col min="6149" max="6149" width="31.140625" customWidth="1"/>
-    <col min="6150" max="6152" width="22.28515625" customWidth="1"/>
-    <col min="6153" max="6153" width="57.85546875" customWidth="1"/>
-    <col min="6154" max="6154" width="28.140625" customWidth="1"/>
-    <col min="6155" max="6155" width="22.28515625" customWidth="1"/>
-    <col min="6156" max="6156" width="24.85546875" customWidth="1"/>
-    <col min="6401" max="6401" width="53.7109375" customWidth="1"/>
-    <col min="6402" max="6402" width="47" customWidth="1"/>
-    <col min="6403" max="6403" width="44.7109375" customWidth="1"/>
-    <col min="6404" max="6404" width="42.140625" customWidth="1"/>
-    <col min="6405" max="6405" width="31.140625" customWidth="1"/>
-    <col min="6406" max="6408" width="22.28515625" customWidth="1"/>
-    <col min="6409" max="6409" width="57.85546875" customWidth="1"/>
-    <col min="6410" max="6410" width="28.140625" customWidth="1"/>
-    <col min="6411" max="6411" width="22.28515625" customWidth="1"/>
-    <col min="6412" max="6412" width="24.85546875" customWidth="1"/>
-    <col min="6657" max="6657" width="53.7109375" customWidth="1"/>
-    <col min="6658" max="6658" width="47" customWidth="1"/>
-    <col min="6659" max="6659" width="44.7109375" customWidth="1"/>
-    <col min="6660" max="6660" width="42.140625" customWidth="1"/>
-    <col min="6661" max="6661" width="31.140625" customWidth="1"/>
-    <col min="6662" max="6664" width="22.28515625" customWidth="1"/>
-    <col min="6665" max="6665" width="57.85546875" customWidth="1"/>
-    <col min="6666" max="6666" width="28.140625" customWidth="1"/>
-    <col min="6667" max="6667" width="22.28515625" customWidth="1"/>
-    <col min="6668" max="6668" width="24.85546875" customWidth="1"/>
-    <col min="6913" max="6913" width="53.7109375" customWidth="1"/>
-    <col min="6914" max="6914" width="47" customWidth="1"/>
-    <col min="6915" max="6915" width="44.7109375" customWidth="1"/>
-    <col min="6916" max="6916" width="42.140625" customWidth="1"/>
-    <col min="6917" max="6917" width="31.140625" customWidth="1"/>
-    <col min="6918" max="6920" width="22.28515625" customWidth="1"/>
-    <col min="6921" max="6921" width="57.85546875" customWidth="1"/>
-    <col min="6922" max="6922" width="28.140625" customWidth="1"/>
-    <col min="6923" max="6923" width="22.28515625" customWidth="1"/>
-    <col min="6924" max="6924" width="24.85546875" customWidth="1"/>
-    <col min="7169" max="7169" width="53.7109375" customWidth="1"/>
-    <col min="7170" max="7170" width="47" customWidth="1"/>
-    <col min="7171" max="7171" width="44.7109375" customWidth="1"/>
-    <col min="7172" max="7172" width="42.140625" customWidth="1"/>
-    <col min="7173" max="7173" width="31.140625" customWidth="1"/>
-    <col min="7174" max="7176" width="22.28515625" customWidth="1"/>
-    <col min="7177" max="7177" width="57.85546875" customWidth="1"/>
-    <col min="7178" max="7178" width="28.140625" customWidth="1"/>
-    <col min="7179" max="7179" width="22.28515625" customWidth="1"/>
-    <col min="7180" max="7180" width="24.85546875" customWidth="1"/>
-    <col min="7425" max="7425" width="53.7109375" customWidth="1"/>
-    <col min="7426" max="7426" width="47" customWidth="1"/>
-    <col min="7427" max="7427" width="44.7109375" customWidth="1"/>
-    <col min="7428" max="7428" width="42.140625" customWidth="1"/>
-    <col min="7429" max="7429" width="31.140625" customWidth="1"/>
-    <col min="7430" max="7432" width="22.28515625" customWidth="1"/>
-    <col min="7433" max="7433" width="57.85546875" customWidth="1"/>
-    <col min="7434" max="7434" width="28.140625" customWidth="1"/>
-    <col min="7435" max="7435" width="22.28515625" customWidth="1"/>
-    <col min="7436" max="7436" width="24.85546875" customWidth="1"/>
-    <col min="7681" max="7681" width="53.7109375" customWidth="1"/>
-    <col min="7682" max="7682" width="47" customWidth="1"/>
-    <col min="7683" max="7683" width="44.7109375" customWidth="1"/>
-    <col min="7684" max="7684" width="42.140625" customWidth="1"/>
-    <col min="7685" max="7685" width="31.140625" customWidth="1"/>
-    <col min="7686" max="7688" width="22.28515625" customWidth="1"/>
-    <col min="7689" max="7689" width="57.85546875" customWidth="1"/>
-    <col min="7690" max="7690" width="28.140625" customWidth="1"/>
-    <col min="7691" max="7691" width="22.28515625" customWidth="1"/>
-    <col min="7692" max="7692" width="24.85546875" customWidth="1"/>
-    <col min="7937" max="7937" width="53.7109375" customWidth="1"/>
-    <col min="7938" max="7938" width="47" customWidth="1"/>
-    <col min="7939" max="7939" width="44.7109375" customWidth="1"/>
-    <col min="7940" max="7940" width="42.140625" customWidth="1"/>
-    <col min="7941" max="7941" width="31.140625" customWidth="1"/>
-    <col min="7942" max="7944" width="22.28515625" customWidth="1"/>
-    <col min="7945" max="7945" width="57.85546875" customWidth="1"/>
-    <col min="7946" max="7946" width="28.140625" customWidth="1"/>
-    <col min="7947" max="7947" width="22.28515625" customWidth="1"/>
-    <col min="7948" max="7948" width="24.85546875" customWidth="1"/>
-    <col min="8193" max="8193" width="53.7109375" customWidth="1"/>
-    <col min="8194" max="8194" width="47" customWidth="1"/>
-    <col min="8195" max="8195" width="44.7109375" customWidth="1"/>
-    <col min="8196" max="8196" width="42.140625" customWidth="1"/>
-    <col min="8197" max="8197" width="31.140625" customWidth="1"/>
-    <col min="8198" max="8200" width="22.28515625" customWidth="1"/>
-    <col min="8201" max="8201" width="57.85546875" customWidth="1"/>
-    <col min="8202" max="8202" width="28.140625" customWidth="1"/>
-    <col min="8203" max="8203" width="22.28515625" customWidth="1"/>
-    <col min="8204" max="8204" width="24.85546875" customWidth="1"/>
-    <col min="8449" max="8449" width="53.7109375" customWidth="1"/>
-    <col min="8450" max="8450" width="47" customWidth="1"/>
-    <col min="8451" max="8451" width="44.7109375" customWidth="1"/>
-    <col min="8452" max="8452" width="42.140625" customWidth="1"/>
-    <col min="8453" max="8453" width="31.140625" customWidth="1"/>
-    <col min="8454" max="8456" width="22.28515625" customWidth="1"/>
-    <col min="8457" max="8457" width="57.85546875" customWidth="1"/>
-    <col min="8458" max="8458" width="28.140625" customWidth="1"/>
-    <col min="8459" max="8459" width="22.28515625" customWidth="1"/>
-    <col min="8460" max="8460" width="24.85546875" customWidth="1"/>
-    <col min="8705" max="8705" width="53.7109375" customWidth="1"/>
-    <col min="8706" max="8706" width="47" customWidth="1"/>
-    <col min="8707" max="8707" width="44.7109375" customWidth="1"/>
-    <col min="8708" max="8708" width="42.140625" customWidth="1"/>
-    <col min="8709" max="8709" width="31.140625" customWidth="1"/>
-    <col min="8710" max="8712" width="22.28515625" customWidth="1"/>
-    <col min="8713" max="8713" width="57.85546875" customWidth="1"/>
-    <col min="8714" max="8714" width="28.140625" customWidth="1"/>
-    <col min="8715" max="8715" width="22.28515625" customWidth="1"/>
-    <col min="8716" max="8716" width="24.85546875" customWidth="1"/>
-    <col min="8961" max="8961" width="53.7109375" customWidth="1"/>
-    <col min="8962" max="8962" width="47" customWidth="1"/>
-    <col min="8963" max="8963" width="44.7109375" customWidth="1"/>
-    <col min="8964" max="8964" width="42.140625" customWidth="1"/>
-    <col min="8965" max="8965" width="31.140625" customWidth="1"/>
-    <col min="8966" max="8968" width="22.28515625" customWidth="1"/>
-    <col min="8969" max="8969" width="57.85546875" customWidth="1"/>
-    <col min="8970" max="8970" width="28.140625" customWidth="1"/>
-    <col min="8971" max="8971" width="22.28515625" customWidth="1"/>
-    <col min="8972" max="8972" width="24.85546875" customWidth="1"/>
-    <col min="9217" max="9217" width="53.7109375" customWidth="1"/>
-    <col min="9218" max="9218" width="47" customWidth="1"/>
-    <col min="9219" max="9219" width="44.7109375" customWidth="1"/>
-    <col min="9220" max="9220" width="42.140625" customWidth="1"/>
-    <col min="9221" max="9221" width="31.140625" customWidth="1"/>
-    <col min="9222" max="9224" width="22.28515625" customWidth="1"/>
-    <col min="9225" max="9225" width="57.85546875" customWidth="1"/>
-    <col min="9226" max="9226" width="28.140625" customWidth="1"/>
-    <col min="9227" max="9227" width="22.28515625" customWidth="1"/>
-    <col min="9228" max="9228" width="24.85546875" customWidth="1"/>
-    <col min="9473" max="9473" width="53.7109375" customWidth="1"/>
-    <col min="9474" max="9474" width="47" customWidth="1"/>
-    <col min="9475" max="9475" width="44.7109375" customWidth="1"/>
-    <col min="9476" max="9476" width="42.140625" customWidth="1"/>
-    <col min="9477" max="9477" width="31.140625" customWidth="1"/>
-    <col min="9478" max="9480" width="22.28515625" customWidth="1"/>
-    <col min="9481" max="9481" width="57.85546875" customWidth="1"/>
-    <col min="9482" max="9482" width="28.140625" customWidth="1"/>
-    <col min="9483" max="9483" width="22.28515625" customWidth="1"/>
-    <col min="9484" max="9484" width="24.85546875" customWidth="1"/>
-    <col min="9729" max="9729" width="53.7109375" customWidth="1"/>
-    <col min="9730" max="9730" width="47" customWidth="1"/>
-    <col min="9731" max="9731" width="44.7109375" customWidth="1"/>
-    <col min="9732" max="9732" width="42.140625" customWidth="1"/>
-    <col min="9733" max="9733" width="31.140625" customWidth="1"/>
-    <col min="9734" max="9736" width="22.28515625" customWidth="1"/>
-    <col min="9737" max="9737" width="57.85546875" customWidth="1"/>
-    <col min="9738" max="9738" width="28.140625" customWidth="1"/>
-    <col min="9739" max="9739" width="22.28515625" customWidth="1"/>
-    <col min="9740" max="9740" width="24.85546875" customWidth="1"/>
-    <col min="9985" max="9985" width="53.7109375" customWidth="1"/>
-    <col min="9986" max="9986" width="47" customWidth="1"/>
-    <col min="9987" max="9987" width="44.7109375" customWidth="1"/>
-    <col min="9988" max="9988" width="42.140625" customWidth="1"/>
-    <col min="9989" max="9989" width="31.140625" customWidth="1"/>
-    <col min="9990" max="9992" width="22.28515625" customWidth="1"/>
-    <col min="9993" max="9993" width="57.85546875" customWidth="1"/>
-    <col min="9994" max="9994" width="28.140625" customWidth="1"/>
-    <col min="9995" max="9995" width="22.28515625" customWidth="1"/>
-    <col min="9996" max="9996" width="24.85546875" customWidth="1"/>
-    <col min="10241" max="10241" width="53.7109375" customWidth="1"/>
-    <col min="10242" max="10242" width="47" customWidth="1"/>
-    <col min="10243" max="10243" width="44.7109375" customWidth="1"/>
-    <col min="10244" max="10244" width="42.140625" customWidth="1"/>
-    <col min="10245" max="10245" width="31.140625" customWidth="1"/>
-    <col min="10246" max="10248" width="22.28515625" customWidth="1"/>
-    <col min="10249" max="10249" width="57.85546875" customWidth="1"/>
-    <col min="10250" max="10250" width="28.140625" customWidth="1"/>
-    <col min="10251" max="10251" width="22.28515625" customWidth="1"/>
-    <col min="10252" max="10252" width="24.85546875" customWidth="1"/>
-    <col min="10497" max="10497" width="53.7109375" customWidth="1"/>
-    <col min="10498" max="10498" width="47" customWidth="1"/>
-    <col min="10499" max="10499" width="44.7109375" customWidth="1"/>
-    <col min="10500" max="10500" width="42.140625" customWidth="1"/>
-    <col min="10501" max="10501" width="31.140625" customWidth="1"/>
-    <col min="10502" max="10504" width="22.28515625" customWidth="1"/>
-    <col min="10505" max="10505" width="57.85546875" customWidth="1"/>
-    <col min="10506" max="10506" width="28.140625" customWidth="1"/>
-    <col min="10507" max="10507" width="22.28515625" customWidth="1"/>
-    <col min="10508" max="10508" width="24.85546875" customWidth="1"/>
-    <col min="10753" max="10753" width="53.7109375" customWidth="1"/>
-    <col min="10754" max="10754" width="47" customWidth="1"/>
-    <col min="10755" max="10755" width="44.7109375" customWidth="1"/>
-    <col min="10756" max="10756" width="42.140625" customWidth="1"/>
-    <col min="10757" max="10757" width="31.140625" customWidth="1"/>
-    <col min="10758" max="10760" width="22.28515625" customWidth="1"/>
-    <col min="10761" max="10761" width="57.85546875" customWidth="1"/>
-    <col min="10762" max="10762" width="28.140625" customWidth="1"/>
-    <col min="10763" max="10763" width="22.28515625" customWidth="1"/>
-    <col min="10764" max="10764" width="24.85546875" customWidth="1"/>
-    <col min="11009" max="11009" width="53.7109375" customWidth="1"/>
-    <col min="11010" max="11010" width="47" customWidth="1"/>
-    <col min="11011" max="11011" width="44.7109375" customWidth="1"/>
-    <col min="11012" max="11012" width="42.140625" customWidth="1"/>
-    <col min="11013" max="11013" width="31.140625" customWidth="1"/>
-    <col min="11014" max="11016" width="22.28515625" customWidth="1"/>
-    <col min="11017" max="11017" width="57.85546875" customWidth="1"/>
-    <col min="11018" max="11018" width="28.140625" customWidth="1"/>
-    <col min="11019" max="11019" width="22.28515625" customWidth="1"/>
-    <col min="11020" max="11020" width="24.85546875" customWidth="1"/>
-    <col min="11265" max="11265" width="53.7109375" customWidth="1"/>
-    <col min="11266" max="11266" width="47" customWidth="1"/>
-    <col min="11267" max="11267" width="44.7109375" customWidth="1"/>
-    <col min="11268" max="11268" width="42.140625" customWidth="1"/>
-    <col min="11269" max="11269" width="31.140625" customWidth="1"/>
-    <col min="11270" max="11272" width="22.28515625" customWidth="1"/>
-    <col min="11273" max="11273" width="57.85546875" customWidth="1"/>
-    <col min="11274" max="11274" width="28.140625" customWidth="1"/>
-    <col min="11275" max="11275" width="22.28515625" customWidth="1"/>
-    <col min="11276" max="11276" width="24.85546875" customWidth="1"/>
-    <col min="11521" max="11521" width="53.7109375" customWidth="1"/>
-    <col min="11522" max="11522" width="47" customWidth="1"/>
-    <col min="11523" max="11523" width="44.7109375" customWidth="1"/>
-    <col min="11524" max="11524" width="42.140625" customWidth="1"/>
-    <col min="11525" max="11525" width="31.140625" customWidth="1"/>
-    <col min="11526" max="11528" width="22.28515625" customWidth="1"/>
-    <col min="11529" max="11529" width="57.85546875" customWidth="1"/>
-    <col min="11530" max="11530" width="28.140625" customWidth="1"/>
-    <col min="11531" max="11531" width="22.28515625" customWidth="1"/>
-    <col min="11532" max="11532" width="24.85546875" customWidth="1"/>
-    <col min="11777" max="11777" width="53.7109375" customWidth="1"/>
-    <col min="11778" max="11778" width="47" customWidth="1"/>
-    <col min="11779" max="11779" width="44.7109375" customWidth="1"/>
-    <col min="11780" max="11780" width="42.140625" customWidth="1"/>
-    <col min="11781" max="11781" width="31.140625" customWidth="1"/>
-    <col min="11782" max="11784" width="22.28515625" customWidth="1"/>
-    <col min="11785" max="11785" width="57.85546875" customWidth="1"/>
-    <col min="11786" max="11786" width="28.140625" customWidth="1"/>
-    <col min="11787" max="11787" width="22.28515625" customWidth="1"/>
-    <col min="11788" max="11788" width="24.85546875" customWidth="1"/>
-    <col min="12033" max="12033" width="53.7109375" customWidth="1"/>
-    <col min="12034" max="12034" width="47" customWidth="1"/>
-    <col min="12035" max="12035" width="44.7109375" customWidth="1"/>
-    <col min="12036" max="12036" width="42.140625" customWidth="1"/>
-    <col min="12037" max="12037" width="31.140625" customWidth="1"/>
-    <col min="12038" max="12040" width="22.28515625" customWidth="1"/>
-    <col min="12041" max="12041" width="57.85546875" customWidth="1"/>
-    <col min="12042" max="12042" width="28.140625" customWidth="1"/>
-    <col min="12043" max="12043" width="22.28515625" customWidth="1"/>
-    <col min="12044" max="12044" width="24.85546875" customWidth="1"/>
-    <col min="12289" max="12289" width="53.7109375" customWidth="1"/>
-    <col min="12290" max="12290" width="47" customWidth="1"/>
-    <col min="12291" max="12291" width="44.7109375" customWidth="1"/>
-    <col min="12292" max="12292" width="42.140625" customWidth="1"/>
-    <col min="12293" max="12293" width="31.140625" customWidth="1"/>
-    <col min="12294" max="12296" width="22.28515625" customWidth="1"/>
-    <col min="12297" max="12297" width="57.85546875" customWidth="1"/>
-    <col min="12298" max="12298" width="28.140625" customWidth="1"/>
-    <col min="12299" max="12299" width="22.28515625" customWidth="1"/>
-    <col min="12300" max="12300" width="24.85546875" customWidth="1"/>
-    <col min="12545" max="12545" width="53.7109375" customWidth="1"/>
-    <col min="12546" max="12546" width="47" customWidth="1"/>
-    <col min="12547" max="12547" width="44.7109375" customWidth="1"/>
-    <col min="12548" max="12548" width="42.140625" customWidth="1"/>
-    <col min="12549" max="12549" width="31.140625" customWidth="1"/>
-    <col min="12550" max="12552" width="22.28515625" customWidth="1"/>
-    <col min="12553" max="12553" width="57.85546875" customWidth="1"/>
-    <col min="12554" max="12554" width="28.140625" customWidth="1"/>
-    <col min="12555" max="12555" width="22.28515625" customWidth="1"/>
-    <col min="12556" max="12556" width="24.85546875" customWidth="1"/>
-    <col min="12801" max="12801" width="53.7109375" customWidth="1"/>
-    <col min="12802" max="12802" width="47" customWidth="1"/>
-    <col min="12803" max="12803" width="44.7109375" customWidth="1"/>
-    <col min="12804" max="12804" width="42.140625" customWidth="1"/>
-    <col min="12805" max="12805" width="31.140625" customWidth="1"/>
-    <col min="12806" max="12808" width="22.28515625" customWidth="1"/>
-    <col min="12809" max="12809" width="57.85546875" customWidth="1"/>
-    <col min="12810" max="12810" width="28.140625" customWidth="1"/>
-    <col min="12811" max="12811" width="22.28515625" customWidth="1"/>
-    <col min="12812" max="12812" width="24.85546875" customWidth="1"/>
-    <col min="13057" max="13057" width="53.7109375" customWidth="1"/>
-    <col min="13058" max="13058" width="47" customWidth="1"/>
-    <col min="13059" max="13059" width="44.7109375" customWidth="1"/>
-    <col min="13060" max="13060" width="42.140625" customWidth="1"/>
-    <col min="13061" max="13061" width="31.140625" customWidth="1"/>
-    <col min="13062" max="13064" width="22.28515625" customWidth="1"/>
-    <col min="13065" max="13065" width="57.85546875" customWidth="1"/>
-    <col min="13066" max="13066" width="28.140625" customWidth="1"/>
-    <col min="13067" max="13067" width="22.28515625" customWidth="1"/>
-    <col min="13068" max="13068" width="24.85546875" customWidth="1"/>
-    <col min="13313" max="13313" width="53.7109375" customWidth="1"/>
-    <col min="13314" max="13314" width="47" customWidth="1"/>
-    <col min="13315" max="13315" width="44.7109375" customWidth="1"/>
-    <col min="13316" max="13316" width="42.140625" customWidth="1"/>
-    <col min="13317" max="13317" width="31.140625" customWidth="1"/>
-    <col min="13318" max="13320" width="22.28515625" customWidth="1"/>
-    <col min="13321" max="13321" width="57.85546875" customWidth="1"/>
-    <col min="13322" max="13322" width="28.140625" customWidth="1"/>
-    <col min="13323" max="13323" width="22.28515625" customWidth="1"/>
-    <col min="13324" max="13324" width="24.85546875" customWidth="1"/>
-    <col min="13569" max="13569" width="53.7109375" customWidth="1"/>
-    <col min="13570" max="13570" width="47" customWidth="1"/>
-    <col min="13571" max="13571" width="44.7109375" customWidth="1"/>
-    <col min="13572" max="13572" width="42.140625" customWidth="1"/>
-    <col min="13573" max="13573" width="31.140625" customWidth="1"/>
-    <col min="13574" max="13576" width="22.28515625" customWidth="1"/>
-    <col min="13577" max="13577" width="57.85546875" customWidth="1"/>
-    <col min="13578" max="13578" width="28.140625" customWidth="1"/>
-    <col min="13579" max="13579" width="22.28515625" customWidth="1"/>
-    <col min="13580" max="13580" width="24.85546875" customWidth="1"/>
-    <col min="13825" max="13825" width="53.7109375" customWidth="1"/>
-    <col min="13826" max="13826" width="47" customWidth="1"/>
-    <col min="13827" max="13827" width="44.7109375" customWidth="1"/>
-    <col min="13828" max="13828" width="42.140625" customWidth="1"/>
-    <col min="13829" max="13829" width="31.140625" customWidth="1"/>
-    <col min="13830" max="13832" width="22.28515625" customWidth="1"/>
-    <col min="13833" max="13833" width="57.85546875" customWidth="1"/>
-    <col min="13834" max="13834" width="28.140625" customWidth="1"/>
-    <col min="13835" max="13835" width="22.28515625" customWidth="1"/>
-    <col min="13836" max="13836" width="24.85546875" customWidth="1"/>
-    <col min="14081" max="14081" width="53.7109375" customWidth="1"/>
-    <col min="14082" max="14082" width="47" customWidth="1"/>
-    <col min="14083" max="14083" width="44.7109375" customWidth="1"/>
-    <col min="14084" max="14084" width="42.140625" customWidth="1"/>
-    <col min="14085" max="14085" width="31.140625" customWidth="1"/>
-    <col min="14086" max="14088" width="22.28515625" customWidth="1"/>
-    <col min="14089" max="14089" width="57.85546875" customWidth="1"/>
-    <col min="14090" max="14090" width="28.140625" customWidth="1"/>
-    <col min="14091" max="14091" width="22.28515625" customWidth="1"/>
-    <col min="14092" max="14092" width="24.85546875" customWidth="1"/>
-    <col min="14337" max="14337" width="53.7109375" customWidth="1"/>
-    <col min="14338" max="14338" width="47" customWidth="1"/>
-    <col min="14339" max="14339" width="44.7109375" customWidth="1"/>
-    <col min="14340" max="14340" width="42.140625" customWidth="1"/>
-    <col min="14341" max="14341" width="31.140625" customWidth="1"/>
-    <col min="14342" max="14344" width="22.28515625" customWidth="1"/>
-    <col min="14345" max="14345" width="57.85546875" customWidth="1"/>
-    <col min="14346" max="14346" width="28.140625" customWidth="1"/>
-    <col min="14347" max="14347" width="22.28515625" customWidth="1"/>
-    <col min="14348" max="14348" width="24.85546875" customWidth="1"/>
-    <col min="14593" max="14593" width="53.7109375" customWidth="1"/>
-    <col min="14594" max="14594" width="47" customWidth="1"/>
-    <col min="14595" max="14595" width="44.7109375" customWidth="1"/>
-    <col min="14596" max="14596" width="42.140625" customWidth="1"/>
-    <col min="14597" max="14597" width="31.140625" customWidth="1"/>
-    <col min="14598" max="14600" width="22.28515625" customWidth="1"/>
-    <col min="14601" max="14601" width="57.85546875" customWidth="1"/>
-    <col min="14602" max="14602" width="28.140625" customWidth="1"/>
-    <col min="14603" max="14603" width="22.28515625" customWidth="1"/>
-    <col min="14604" max="14604" width="24.85546875" customWidth="1"/>
-    <col min="14849" max="14849" width="53.7109375" customWidth="1"/>
-    <col min="14850" max="14850" width="47" customWidth="1"/>
-    <col min="14851" max="14851" width="44.7109375" customWidth="1"/>
-    <col min="14852" max="14852" width="42.140625" customWidth="1"/>
-    <col min="14853" max="14853" width="31.140625" customWidth="1"/>
-    <col min="14854" max="14856" width="22.28515625" customWidth="1"/>
-    <col min="14857" max="14857" width="57.85546875" customWidth="1"/>
-    <col min="14858" max="14858" width="28.140625" customWidth="1"/>
-    <col min="14859" max="14859" width="22.28515625" customWidth="1"/>
-    <col min="14860" max="14860" width="24.85546875" customWidth="1"/>
-    <col min="15105" max="15105" width="53.7109375" customWidth="1"/>
-    <col min="15106" max="15106" width="47" customWidth="1"/>
-    <col min="15107" max="15107" width="44.7109375" customWidth="1"/>
-    <col min="15108" max="15108" width="42.140625" customWidth="1"/>
-    <col min="15109" max="15109" width="31.140625" customWidth="1"/>
-    <col min="15110" max="15112" width="22.28515625" customWidth="1"/>
-    <col min="15113" max="15113" width="57.85546875" customWidth="1"/>
-    <col min="15114" max="15114" width="28.140625" customWidth="1"/>
-    <col min="15115" max="15115" width="22.28515625" customWidth="1"/>
-    <col min="15116" max="15116" width="24.85546875" customWidth="1"/>
-    <col min="15361" max="15361" width="53.7109375" customWidth="1"/>
-    <col min="15362" max="15362" width="47" customWidth="1"/>
-    <col min="15363" max="15363" width="44.7109375" customWidth="1"/>
-    <col min="15364" max="15364" width="42.140625" customWidth="1"/>
-    <col min="15365" max="15365" width="31.140625" customWidth="1"/>
-    <col min="15366" max="15368" width="22.28515625" customWidth="1"/>
-    <col min="15369" max="15369" width="57.85546875" customWidth="1"/>
-    <col min="15370" max="15370" width="28.140625" customWidth="1"/>
-    <col min="15371" max="15371" width="22.28515625" customWidth="1"/>
-    <col min="15372" max="15372" width="24.85546875" customWidth="1"/>
-    <col min="15617" max="15617" width="53.7109375" customWidth="1"/>
-    <col min="15618" max="15618" width="47" customWidth="1"/>
-    <col min="15619" max="15619" width="44.7109375" customWidth="1"/>
-    <col min="15620" max="15620" width="42.140625" customWidth="1"/>
-    <col min="15621" max="15621" width="31.140625" customWidth="1"/>
-    <col min="15622" max="15624" width="22.28515625" customWidth="1"/>
-    <col min="15625" max="15625" width="57.85546875" customWidth="1"/>
-    <col min="15626" max="15626" width="28.140625" customWidth="1"/>
-    <col min="15627" max="15627" width="22.28515625" customWidth="1"/>
-    <col min="15628" max="15628" width="24.85546875" customWidth="1"/>
-    <col min="15873" max="15873" width="53.7109375" customWidth="1"/>
-    <col min="15874" max="15874" width="47" customWidth="1"/>
-    <col min="15875" max="15875" width="44.7109375" customWidth="1"/>
-    <col min="15876" max="15876" width="42.140625" customWidth="1"/>
-    <col min="15877" max="15877" width="31.140625" customWidth="1"/>
-    <col min="15878" max="15880" width="22.28515625" customWidth="1"/>
-    <col min="15881" max="15881" width="57.85546875" customWidth="1"/>
-    <col min="15882" max="15882" width="28.140625" customWidth="1"/>
-    <col min="15883" max="15883" width="22.28515625" customWidth="1"/>
-    <col min="15884" max="15884" width="24.85546875" customWidth="1"/>
-    <col min="16129" max="16129" width="53.7109375" customWidth="1"/>
-    <col min="16130" max="16130" width="47" customWidth="1"/>
-    <col min="16131" max="16131" width="44.7109375" customWidth="1"/>
-    <col min="16132" max="16132" width="42.140625" customWidth="1"/>
-    <col min="16133" max="16133" width="31.140625" customWidth="1"/>
-    <col min="16134" max="16136" width="22.28515625" customWidth="1"/>
-    <col min="16137" max="16137" width="57.85546875" customWidth="1"/>
-    <col min="16138" max="16138" width="28.140625" customWidth="1"/>
-    <col min="16139" max="16139" width="22.28515625" customWidth="1"/>
-    <col min="16140" max="16140" width="24.85546875" customWidth="1"/>
+    <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>10</v>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
+      <c r="A2" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="str">
+      <c r="A4" s="11" t="str">
         <f>HYPERLINK("http://www.eia.gov/totalenergy/data/monthly/dataunits.cfm","Note: Information about data precision.")</f>
         <v>Note: Information about data precision.</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D11" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E11" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="K11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="L11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="10" t="s">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>27</v>
+      <c r="C12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="8">
         <v>1949</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="7">
         <v>291.10000000000002</v>
       </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="7">
         <v>5.0250000000000004</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="7">
         <v>296.12400000000002</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="7">
         <v>1.764</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="7">
         <v>0.17499999999999999</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="7">
         <v>1.5880000000000001</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="7">
         <v>43.201000000000001</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="7">
         <v>254.511</v>
       </c>
-      <c r="K13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13">
+      <c r="K13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="7">
         <v>254.511</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="8">
         <v>1950</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="7">
         <v>329.14100000000002</v>
       </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="7">
         <v>4.9459999999999997</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="7">
         <v>334.08800000000002</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="7">
         <v>1.9330000000000001</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="7">
         <v>0.14699999999999999</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="7">
         <v>1.786</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="7">
         <v>44.43</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="7">
         <v>291.44299999999998</v>
       </c>
-      <c r="K14" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14">
+      <c r="K14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="7">
         <v>291.44299999999998</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="8">
         <v>1951</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="7">
         <v>370.673</v>
       </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="7">
         <v>4.6260000000000003</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="7">
         <v>375.298</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="7">
         <v>2.387</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="7">
         <v>0.2</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="7">
         <v>2.1869999999999998</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="7">
         <v>47.201000000000001</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="7">
         <v>330.28500000000003</v>
       </c>
-      <c r="K15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15">
+      <c r="K15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7">
         <v>330.28500000000003</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="8">
         <v>1952</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="7">
         <v>399.22399999999999</v>
       </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="7">
         <v>4.6059999999999999</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="7">
         <v>403.82900000000001</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="7">
         <v>2.5059999999999998</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="7">
         <v>0.23699999999999999</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="7">
         <v>2.2690000000000001</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="7">
         <v>49.933999999999997</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="7">
         <v>356.16399999999999</v>
       </c>
-      <c r="K16" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16">
+      <c r="K16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="7">
         <v>356.16399999999999</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="8">
         <v>1953</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="7">
         <v>442.66500000000002</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="7">
         <v>4.3840000000000003</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="7">
         <v>447.04899999999998</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="7">
         <v>2.4369999999999998</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="7">
         <v>0.42899999999999999</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="7">
         <v>2.008</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="7">
         <v>52.84</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="7">
         <v>396.21699999999998</v>
       </c>
-      <c r="K17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17">
+      <c r="K17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="7">
         <v>396.21699999999998</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="8">
         <v>1954</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="7">
         <v>471.68599999999998</v>
       </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="7">
         <v>4.5709999999999997</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="7">
         <v>476.25799999999998</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="7">
         <v>2.6880000000000002</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="7">
         <v>0.34799999999999998</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="7">
         <v>2.34</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="7">
         <v>54.433999999999997</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="7">
         <v>424.16399999999999</v>
       </c>
-      <c r="K18" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18">
+      <c r="K18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7">
         <v>424.16399999999999</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="8">
         <v>1955</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="7">
         <v>547.03800000000001</v>
       </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="7">
         <v>3.2610000000000001</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="7">
         <v>550.29899999999998</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="7">
         <v>4.5670000000000002</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="7">
         <v>0.5</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="7">
         <v>4.0679999999999996</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="7">
         <v>57.618000000000002</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="7">
         <v>496.74799999999999</v>
       </c>
-      <c r="K19" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19">
+      <c r="K19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="7">
         <v>496.74799999999999</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20" s="8">
         <v>1956</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="7">
         <v>600.66800000000001</v>
       </c>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="7">
         <v>3.2080000000000002</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="7">
         <v>603.87599999999998</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="7">
         <v>5.1790000000000003</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="7">
         <v>0.63100000000000001</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="7">
         <v>4.548</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="7">
         <v>62.143999999999998</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="7">
         <v>546.28</v>
       </c>
-      <c r="K20" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20">
+      <c r="K20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="7">
         <v>546.28</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="A21" s="8">
         <v>1957</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="7">
         <v>631.51700000000005</v>
       </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21">
+      <c r="C21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="7">
         <v>3.125</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="7">
         <v>634.64200000000005</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="7">
         <v>4.8559999999999999</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="7">
         <v>1.254</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="7">
         <v>3.601</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="7">
         <v>62.423999999999999</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="7">
         <v>575.82000000000005</v>
       </c>
-      <c r="K21" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21">
+      <c r="K21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="7">
         <v>575.82000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="A22" s="8">
         <v>1958</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="7">
         <v>645.09799999999996</v>
       </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="7">
         <v>3.3519999999999999</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="7">
         <v>648.45100000000002</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="7">
         <v>4.0780000000000003</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="7">
         <v>0.76</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="7">
         <v>3.3180000000000001</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="7">
         <v>63.905999999999999</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="7">
         <v>587.86300000000006</v>
       </c>
-      <c r="K22" t="s">
-        <v>28</v>
-      </c>
-      <c r="L22">
+      <c r="K22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="7">
         <v>587.86300000000006</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="A23" s="8">
         <v>1959</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="7">
         <v>710.00599999999997</v>
       </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23">
+      <c r="C23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="7">
         <v>3.3730000000000002</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="7">
         <v>713.37900000000002</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="7">
         <v>4.3929999999999998</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="7">
         <v>0.83799999999999997</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="7">
         <v>3.5539999999999998</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="7">
         <v>70.045000000000002</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="7">
         <v>646.88800000000003</v>
       </c>
-      <c r="K23" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23">
+      <c r="K23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="7">
         <v>646.88800000000003</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="A24" s="8">
         <v>1960</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="7">
         <v>755.54899999999998</v>
       </c>
-      <c r="C24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="7">
         <v>3.6070000000000002</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="7">
         <v>759.15599999999995</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="7">
         <v>5.3230000000000004</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="7">
         <v>0.78800000000000003</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="7">
         <v>4.5350000000000001</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="7">
         <v>75.616</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="7">
         <v>688.07500000000005</v>
       </c>
-      <c r="K24" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24">
+      <c r="K24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="7">
         <v>688.07500000000005</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="A25" s="8">
         <v>1961</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="7">
         <v>793.76</v>
       </c>
-      <c r="C25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="7">
         <v>3.3650000000000002</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="7">
         <v>797.12400000000002</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="7">
         <v>3.17</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="7">
         <v>0.91700000000000004</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="7">
         <v>2.254</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="7">
         <v>77.427999999999997</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="7">
         <v>721.95</v>
       </c>
-      <c r="K25" t="s">
-        <v>28</v>
-      </c>
-      <c r="L25">
+      <c r="K25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="7">
         <v>721.95</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="A26" s="8">
         <v>1962</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="7">
         <v>854.53499999999997</v>
       </c>
-      <c r="C26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26">
+      <c r="C26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="7">
         <v>3.4089999999999998</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="7">
         <v>857.94399999999996</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="7">
         <v>2.1970000000000001</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="7">
         <v>1.661</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="7">
         <v>0.53600000000000003</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="7">
         <v>80.88</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="7">
         <v>777.6</v>
       </c>
-      <c r="K26" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26">
+      <c r="K26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="7">
         <v>777.6</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="A27" s="8">
         <v>1963</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="7">
         <v>916.79300000000001</v>
       </c>
-      <c r="C27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27">
+      <c r="C27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="7">
         <v>3.2349999999999999</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="7">
         <v>920.02800000000002</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="7">
         <v>2.0830000000000002</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="7">
         <v>1.9850000000000001</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="7">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="7">
         <v>87.513000000000005</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="7">
         <v>832.61300000000006</v>
       </c>
-      <c r="K27" t="s">
-        <v>28</v>
-      </c>
-      <c r="L27">
+      <c r="K27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="7">
         <v>832.61300000000006</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="A28" s="8">
         <v>1964</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="7">
         <v>983.99</v>
       </c>
-      <c r="C28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28">
+      <c r="C28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="7">
         <v>3.2280000000000002</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="7">
         <v>987.21799999999996</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="7">
         <v>6.2089999999999996</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="7">
         <v>4.2530000000000001</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="7">
         <v>1.9550000000000001</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="7">
         <v>93.114999999999995</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="7">
         <v>896.05899999999997</v>
       </c>
-      <c r="K28" t="s">
-        <v>28</v>
-      </c>
-      <c r="L28">
+      <c r="K28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="7">
         <v>896.05899999999997</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+      <c r="A29" s="8">
         <v>1965</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="7">
         <v>1055.252</v>
       </c>
-      <c r="C29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29">
+      <c r="C29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="7">
         <v>3.1339999999999999</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="7">
         <v>1058.386</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="7">
         <v>3.5579999999999998</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="7">
         <v>3.6989999999999998</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="7">
         <v>-0.14099999999999999</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="7">
         <v>104.455</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="7">
         <v>953.78899999999999</v>
       </c>
-      <c r="K29" t="s">
-        <v>28</v>
-      </c>
-      <c r="L29">
+      <c r="K29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="7">
         <v>953.78899999999999</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="A30" s="8">
         <v>1966</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="7">
         <v>1144.3499999999999</v>
       </c>
-      <c r="C30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30">
+      <c r="C30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="7">
         <v>3.1819999999999999</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="7">
         <v>1147.5319999999999</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="7">
         <v>4.2679999999999998</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="7">
         <v>3.1760000000000002</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="7">
         <v>1.0920000000000001</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="7">
         <v>113.479</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="7">
         <v>1035.145</v>
       </c>
-      <c r="K30" t="s">
-        <v>28</v>
-      </c>
-      <c r="L30">
+      <c r="K30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="7">
         <v>1035.145</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="A31" s="8">
         <v>1967</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="7">
         <v>1214.365</v>
       </c>
-      <c r="C31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31">
+      <c r="C31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="7">
         <v>3.431</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="7">
         <v>1217.796</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="7">
         <v>4.0510000000000002</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="7">
         <v>4.3499999999999996</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="7">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="7">
         <v>118.279</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="7">
         <v>1099.2170000000001</v>
       </c>
-      <c r="K31" t="s">
-        <v>28</v>
-      </c>
-      <c r="L31">
+      <c r="K31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="7">
         <v>1099.2170000000001</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+      <c r="A32" s="8">
         <v>1968</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="7">
         <v>1329.443</v>
       </c>
-      <c r="C32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32">
+      <c r="C32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="7">
         <v>3.383</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="7">
         <v>1332.826</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="7">
         <v>3.6539999999999999</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="7">
         <v>4.2850000000000001</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="7">
         <v>-0.63100000000000001</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="7">
         <v>129.32400000000001</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="7">
         <v>1202.8710000000001</v>
       </c>
-      <c r="K32" t="s">
-        <v>28</v>
-      </c>
-      <c r="L32">
+      <c r="K32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="7">
         <v>1202.8710000000001</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+      <c r="A33" s="8">
         <v>1969</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="7">
         <v>1442.182</v>
       </c>
-      <c r="C33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33">
+      <c r="C33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="7">
         <v>3.2759999999999998</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="7">
         <v>1445.4580000000001</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="7">
         <v>4.9020000000000001</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="7">
         <v>3.83</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="7">
         <v>1.0720000000000001</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="7">
         <v>132.696</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="7">
         <v>1313.8330000000001</v>
       </c>
-      <c r="K33" t="s">
-        <v>28</v>
-      </c>
-      <c r="L33">
+      <c r="K33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="7">
         <v>1313.8330000000001</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+      <c r="A34" s="8">
         <v>1970</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="7">
         <v>1531.8679999999999</v>
       </c>
-      <c r="C34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34">
+      <c r="C34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="7">
         <v>3.2440000000000002</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="7">
         <v>1535.1110000000001</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="7">
         <v>6.17</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="7">
         <v>4.2089999999999996</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="7">
         <v>1.96</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="7">
         <v>144.77199999999999</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="7">
         <v>1392.3</v>
       </c>
-      <c r="K34" t="s">
-        <v>28</v>
-      </c>
-      <c r="L34">
+      <c r="K34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="7">
         <v>1392.3</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+      <c r="A35" s="8">
         <v>1971</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="7">
         <v>1612.633</v>
       </c>
-      <c r="C35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35">
+      <c r="C35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="7">
         <v>3.2210000000000001</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="7">
         <v>1615.854</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="7">
         <v>7.0439999999999996</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="7">
         <v>3.5139999999999998</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="7">
         <v>3.53</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="7">
         <v>149.84399999999999</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="7">
         <v>1469.54</v>
       </c>
-      <c r="K35" t="s">
-        <v>28</v>
-      </c>
-      <c r="L35">
+      <c r="K35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="7">
         <v>1469.54</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
+      <c r="A36" s="8">
         <v>1972</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="7">
         <v>1749.662</v>
       </c>
-      <c r="C36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36">
+      <c r="C36" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="7">
         <v>3.3159999999999998</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="7">
         <v>1752.9780000000001</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="7">
         <v>10.494999999999999</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="7">
         <v>2.8090000000000002</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="7">
         <v>7.6870000000000003</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="7">
         <v>165.50399999999999</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="7">
         <v>1595.1610000000001</v>
       </c>
-      <c r="K36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L36">
+      <c r="K36" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="7">
         <v>1595.1610000000001</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
+      <c r="A37" s="8">
         <v>1973</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="7">
         <v>1860.71</v>
       </c>
-      <c r="C37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37">
+      <c r="C37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="7">
         <v>3.347</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="7">
         <v>1864.057</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="7">
         <v>16.847999999999999</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="7">
         <v>2.57</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="7">
         <v>14.278</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="7">
         <v>165.42599999999999</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="7">
         <v>1712.9090000000001</v>
       </c>
-      <c r="K37" t="s">
-        <v>28</v>
-      </c>
-      <c r="L37">
+      <c r="K37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="7">
         <v>1712.9090000000001</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
+      <c r="A38" s="8">
         <v>1974</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="7">
         <v>1867.14</v>
       </c>
-      <c r="C38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38">
+      <c r="C38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="7">
         <v>3.18</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="7">
         <v>1870.319</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="7">
         <v>15.42</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="7">
         <v>2.726</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="7">
         <v>12.694000000000001</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="7">
         <v>177.089</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="7">
         <v>1705.924</v>
       </c>
-      <c r="K38" t="s">
-        <v>28</v>
-      </c>
-      <c r="L38">
+      <c r="K38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="7">
         <v>1705.924</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
+      <c r="A39" s="8">
         <v>1975</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="7">
         <v>1917.6489999999999</v>
       </c>
-      <c r="C39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39">
+      <c r="C39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="7">
         <v>3.1059999999999999</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="7">
         <v>1920.7550000000001</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="7">
         <v>11.268000000000001</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="7">
         <v>5.0830000000000002</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="7">
         <v>6.1849999999999996</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="7">
         <v>179.84899999999999</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="7">
         <v>1747.0909999999999</v>
       </c>
-      <c r="K39" t="s">
-        <v>28</v>
-      </c>
-      <c r="L39">
+      <c r="K39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="7">
         <v>1747.0909999999999</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
+      <c r="A40" s="8">
         <v>1976</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="7">
         <v>2037.6959999999999</v>
       </c>
-      <c r="C40" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40">
+      <c r="C40" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="7">
         <v>3.2170000000000001</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="7">
         <v>2040.914</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="7">
         <v>10.988</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="7">
         <v>2.3780000000000001</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="7">
         <v>8.61</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="7">
         <v>194.27799999999999</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="7">
         <v>1855.2460000000001</v>
       </c>
-      <c r="K40" t="s">
-        <v>28</v>
-      </c>
-      <c r="L40">
+      <c r="K40" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" s="7">
         <v>1855.2460000000001</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
+      <c r="A41" s="8">
         <v>1977</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="7">
         <v>2124.3229999999999</v>
       </c>
-      <c r="C41" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41">
+      <c r="C41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="7">
         <v>3.1240000000000001</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="7">
         <v>2127.4470000000001</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="7">
         <v>20.158999999999999</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="7">
         <v>2.7440000000000002</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="7">
         <v>17.416</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="7">
         <v>196.50200000000001</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="7">
         <v>1948.3610000000001</v>
       </c>
-      <c r="K41" t="s">
-        <v>28</v>
-      </c>
-      <c r="L41">
+      <c r="K41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" s="7">
         <v>1948.3610000000001</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
+      <c r="A42" s="8">
         <v>1978</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="7">
         <v>2206.3310000000001</v>
       </c>
-      <c r="C42" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42">
+      <c r="C42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="7">
         <v>3.0459999999999998</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="7">
         <v>2209.377</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="7">
         <v>21.207999999999998</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="7">
         <v>1.478</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="7">
         <v>19.73</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="7">
         <v>211.185</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="7">
         <v>2017.922</v>
       </c>
-      <c r="K42" t="s">
-        <v>28</v>
-      </c>
-      <c r="L42">
+      <c r="K42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42" s="7">
         <v>2017.922</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
+      <c r="A43" s="8">
         <v>1979</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="7">
         <v>2247.3719999999998</v>
       </c>
-      <c r="C43" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43">
+      <c r="C43" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="7">
         <v>3.2930000000000001</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="7">
         <v>2250.665</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="7">
         <v>22.515999999999998</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="7">
         <v>2.1819999999999999</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="7">
         <v>20.334</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="7">
         <v>199.9</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="7">
         <v>2071.0990000000002</v>
       </c>
-      <c r="K43" t="s">
-        <v>28</v>
-      </c>
-      <c r="L43">
+      <c r="K43" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" s="7">
         <v>2071.0990000000002</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
+      <c r="A44" s="8">
         <v>1980</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="7">
         <v>2286.4389999999999</v>
       </c>
-      <c r="C44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44">
+      <c r="C44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="7">
         <v>3.161</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="7">
         <v>2289.6</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="7">
         <v>25.021000000000001</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="7">
         <v>4.0960000000000001</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="7">
         <v>20.925999999999998</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="7">
         <v>216.077</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="7">
         <v>2094.4490000000001</v>
       </c>
-      <c r="K44" t="s">
-        <v>28</v>
-      </c>
-      <c r="L44">
+      <c r="K44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" s="7">
         <v>2094.4490000000001</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
+      <c r="A45" s="8">
         <v>1981</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="7">
         <v>2294.8119999999999</v>
       </c>
-      <c r="C45" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45">
+      <c r="C45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="7">
         <v>3.161</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="7">
         <v>2297.973</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="7">
         <v>36.298000000000002</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="7">
         <v>3.06</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="7">
         <v>33.237000000000002</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="7">
         <v>184.108</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="7">
         <v>2147.1030000000001</v>
       </c>
-      <c r="K45" t="s">
-        <v>28</v>
-      </c>
-      <c r="L45">
+      <c r="K45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" s="7">
         <v>2147.1030000000001</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
+      <c r="A46" s="8">
         <v>1982</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="7">
         <v>2241.2109999999998</v>
       </c>
-      <c r="C46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46">
+      <c r="C46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="7">
         <v>3.161</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="7">
         <v>2244.3719999999998</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="7">
         <v>32.851999999999997</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="7">
         <v>3.536</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="7">
         <v>29.315999999999999</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="7">
         <v>187.24700000000001</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="7">
         <v>2086.4409999999998</v>
       </c>
-      <c r="K46" t="s">
-        <v>28</v>
-      </c>
-      <c r="L46">
+      <c r="K46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" s="7">
         <v>2086.4409999999998</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
+      <c r="A47" s="8">
         <v>1983</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="7">
         <v>2310.2849999999999</v>
       </c>
-      <c r="C47" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47">
+      <c r="C47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="7">
         <v>3.161</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="7">
         <v>2313.4459999999999</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="7">
         <v>38.667999999999999</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="7">
         <v>3.3370000000000002</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="7">
         <v>35.33</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="7">
         <v>197.821</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="7">
         <v>2150.9549999999999</v>
       </c>
-      <c r="K47" t="s">
-        <v>28</v>
-      </c>
-      <c r="L47">
+      <c r="K47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" s="7">
         <v>2150.9549999999999</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
+      <c r="A48" s="8">
         <v>1984</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="7">
         <v>2416.3040000000001</v>
       </c>
-      <c r="C48" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48">
+      <c r="C48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="7">
         <v>3.161</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="7">
         <v>2419.4650000000001</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="7">
         <v>42.219000000000001</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="7">
         <v>2.5579999999999998</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="7">
         <v>39.661000000000001</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="7">
         <v>173.33</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="7">
         <v>2285.7959999999998</v>
       </c>
-      <c r="K48" t="s">
-        <v>28</v>
-      </c>
-      <c r="L48">
+      <c r="K48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L48" s="7">
         <v>2285.7959999999998</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="11">
+      <c r="A49" s="8">
         <v>1985</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="7">
         <v>2469.8409999999999</v>
       </c>
-      <c r="C49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49">
+      <c r="C49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="7">
         <v>3.161</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="7">
         <v>2473.002</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="7">
         <v>45.895000000000003</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="7">
         <v>4.9649999999999999</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="7">
         <v>40.930999999999997</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="7">
         <v>189.959</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="7">
         <v>2323.9740000000002</v>
       </c>
-      <c r="K49" t="s">
-        <v>28</v>
-      </c>
-      <c r="L49">
+      <c r="K49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" s="7">
         <v>2323.9740000000002</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="11">
+      <c r="A50" s="8">
         <v>1986</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="7">
         <v>2487.31</v>
       </c>
-      <c r="C50" t="s">
-        <v>28</v>
-      </c>
-      <c r="D50">
+      <c r="C50" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="7">
         <v>3.161</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="7">
         <v>2490.471</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="7">
         <v>40.713000000000001</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="7">
         <v>4.8159999999999998</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="7">
         <v>35.896999999999998</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="7">
         <v>157.61500000000001</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="7">
         <v>2368.7530000000002</v>
       </c>
-      <c r="K50" t="s">
-        <v>28</v>
-      </c>
-      <c r="L50">
+      <c r="K50" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" s="7">
         <v>2368.7530000000002</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="11">
+      <c r="A51" s="8">
         <v>1987</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="7">
         <v>2572.127</v>
       </c>
-      <c r="C51" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51">
+      <c r="C51" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="7">
         <v>3.161</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="7">
         <v>2575.288</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="7">
         <v>52.219000000000001</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="7">
         <v>5.8819999999999997</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="7">
         <v>46.337000000000003</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="7">
         <v>164.352</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="7">
         <v>2457.2719999999999</v>
       </c>
-      <c r="K51" t="s">
-        <v>28</v>
-      </c>
-      <c r="L51">
+      <c r="K51" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L51" s="7">
         <v>2457.2719999999999</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="11">
+      <c r="A52" s="8">
         <v>1988</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="7">
         <v>2704.25</v>
       </c>
-      <c r="C52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52">
+      <c r="C52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="7">
         <v>3.161</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="7">
         <v>2707.4110000000001</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="7">
         <v>38.837000000000003</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="7">
         <v>7.0670000000000002</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="7">
         <v>31.77</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="7">
         <v>161.119</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="7">
         <v>2578.0619999999999</v>
       </c>
-      <c r="K52" t="s">
-        <v>28</v>
-      </c>
-      <c r="L52">
+      <c r="K52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="7">
         <v>2578.0619999999999</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="11">
+      <c r="A53" s="8">
         <v>1989</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="7">
         <v>2848.2269999999999</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="7">
         <v>4.2510000000000003</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="7">
         <v>114.828</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="7">
         <v>2967.1460000000002</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="7">
         <v>26.11</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="7">
         <v>15.135</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="7">
         <v>10.976000000000001</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="7">
         <v>222.48699999999999</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="7">
         <v>2646.8090000000002</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="7">
         <v>108.82599999999999</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="7">
         <v>2755.6350000000002</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="11">
+      <c r="A54" s="8">
         <v>1990</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="7">
         <v>2901.3220000000001</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="7">
         <v>5.8369999999999997</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="7">
         <v>130.83000000000001</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="7">
         <v>3037.8270000000002</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="7">
         <v>18.445</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="7">
         <v>16.134</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="7">
         <v>2.3119999999999998</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="7">
         <v>203.05600000000001</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="7">
         <v>2712.5549999999998</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="7">
         <v>124.529</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="7">
         <v>2837.0839999999998</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="11">
+      <c r="A55" s="8">
         <v>1991</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="7">
         <v>2935.5610000000001</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="7">
         <v>5.6589999999999998</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="7">
         <v>132.57900000000001</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="7">
         <v>3073.799</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="7">
         <v>21.931000000000001</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="7">
         <v>2.3050000000000002</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="7">
         <v>19.626000000000001</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="7">
         <v>207.36500000000001</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="7">
         <v>2762.0030000000002</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="7">
         <v>124.057</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="7">
         <v>2886.06</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="11">
+      <c r="A56" s="8">
         <v>1992</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="7">
         <v>2934.3739999999998</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="7">
         <v>6.2279999999999998</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="7">
         <v>143.28</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="7">
         <v>3083.8820000000001</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="7">
         <v>28.247</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="7">
         <v>2.827</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="7">
         <v>25.42</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="7">
         <v>212.096</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="7">
         <v>2763.3649999999998</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="7">
         <v>133.84100000000001</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="7">
         <v>2897.2069999999999</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="11">
+      <c r="A57" s="8">
         <v>1993</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="7">
         <v>3043.8969999999999</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="7">
         <v>7</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="7">
         <v>146.29400000000001</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="7">
         <v>3197.1909999999998</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="7">
         <v>31.358000000000001</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="7">
         <v>3.5409999999999999</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="7">
         <v>27.817</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="7">
         <v>224.30799999999999</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="7">
         <v>2861.462</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="7">
         <v>139.238</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="7">
         <v>3000.7</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="11">
+      <c r="A58" s="8">
         <v>1994</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="7">
         <v>3088.7249999999999</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="7">
         <v>7.6189999999999998</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="7">
         <v>151.178</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="7">
         <v>3247.5219999999999</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="7">
         <v>46.832999999999998</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="7">
         <v>2.0099999999999998</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="7">
         <v>44.823</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="7">
         <v>211.45699999999999</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="7">
         <v>2934.5630000000001</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="7">
         <v>146.32499999999999</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="7">
         <v>3080.8879999999999</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="11">
+      <c r="A59" s="8">
         <v>1995</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="7">
         <v>3194.23</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="7">
         <v>8.2319999999999993</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="7">
         <v>151.02500000000001</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="7">
         <v>3353.4870000000001</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="7">
         <v>42.853999999999999</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="7">
         <v>3.6230000000000002</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="7">
         <v>39.231000000000002</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="7">
         <v>228.755</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="7">
         <v>3013.2869999999998</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="7">
         <v>150.67699999999999</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="7">
         <v>3163.9630000000002</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="11">
+      <c r="A60" s="8">
         <v>1996</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="7">
         <v>3284.1410000000001</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="7">
         <v>9.0299999999999994</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="7">
         <v>151.017</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="7">
         <v>3444.1880000000001</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="7">
         <v>43.497</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="7">
         <v>3.302</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="7">
         <v>40.195</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="7">
         <v>230.61699999999999</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="7">
         <v>3101.127</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="7">
         <v>152.63800000000001</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="7">
         <v>3253.7649999999999</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="11">
+      <c r="A61" s="8">
         <v>1997</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="7">
         <v>3329.375</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="7">
         <v>8.7010000000000005</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="7">
         <v>154.09700000000001</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="7">
         <v>3492.172</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="7">
         <v>43.030999999999999</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="7">
         <v>8.9740000000000002</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="7">
         <v>34.057000000000002</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="7">
         <v>224.38</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="7">
         <v>3145.61</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="7">
         <v>156.239</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="7">
         <v>3301.8490000000002</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="11">
+      <c r="A62" s="8">
         <v>1998</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="7">
         <v>3457.4160000000002</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="7">
         <v>8.7479999999999993</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="7">
         <v>154.13200000000001</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="7">
         <v>3620.2950000000001</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="7">
         <v>39.512999999999998</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="7">
         <v>13.656000000000001</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="7">
         <v>25.856999999999999</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="7">
         <v>221.05600000000001</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="7">
         <v>3264.2310000000002</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="7">
         <v>160.86600000000001</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="7">
         <v>3425.0970000000002</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="11">
+      <c r="A63" s="8">
         <v>1999</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="7">
         <v>3529.982</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="7">
         <v>8.5630000000000006</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="7">
         <v>156.26400000000001</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="7">
         <v>3694.81</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="7">
         <v>43.215000000000003</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="7">
         <v>14.222</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="7">
         <v>28.992999999999999</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="7">
         <v>240.08600000000001</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="7">
         <v>3312.087</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="7">
         <v>171.62899999999999</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="7">
         <v>3483.7159999999999</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="11">
+      <c r="A64" s="8">
         <v>2000</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="7">
         <v>3637.529</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="7">
         <v>7.9029999999999996</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="7">
         <v>156.673</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="7">
         <v>3802.105</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="7">
         <v>48.591999999999999</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="7">
         <v>14.829000000000001</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="7">
         <v>33.762999999999998</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="7">
         <v>243.511</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="7">
         <v>3421.4140000000002</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="7">
         <v>170.94300000000001</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="7">
         <v>3592.357</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="11">
+      <c r="A65" s="8">
         <v>2001</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="7">
         <v>3580.0529999999999</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="7">
         <v>7.4160000000000004</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="7">
         <v>149.17500000000001</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="7">
         <v>3736.6439999999998</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="7">
         <v>38.5</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="7">
         <v>16.472999999999999</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="7">
         <v>22.027000000000001</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="7">
         <v>201.56399999999999</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="7">
         <v>3394.4580000000001</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="7">
         <v>162.649</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="7">
         <v>3557.107</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="11">
+      <c r="A66" s="8">
         <v>2002</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="7">
         <v>3698.4580000000001</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="7">
         <v>7.415</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="7">
         <v>152.58000000000001</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="7">
         <v>3858.4520000000002</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="7">
         <v>36.779000000000003</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="7">
         <v>15.795999999999999</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="7">
         <v>20.983000000000001</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="7">
         <v>247.785</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="7">
         <v>3465.4659999999999</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="7">
         <v>166.184</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="7">
         <v>3631.65</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="11">
+      <c r="A67" s="8">
         <v>2003</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="7">
         <v>3721.1590000000001</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="7">
         <v>7.4960000000000004</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="7">
         <v>154.53</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="7">
         <v>3883.1849999999999</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="7">
         <v>30.395</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="7">
         <v>23.975000000000001</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="7">
         <v>6.42</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="7">
         <v>227.57599999999999</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="7">
         <v>3493.7339999999999</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="7">
         <v>168.29499999999999</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="7">
         <v>3662.029</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="11">
+      <c r="A68" s="8">
         <v>2004</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="7">
         <v>3808.36</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="7">
         <v>8.27</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="7">
         <v>153.92500000000001</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="7">
         <v>3970.5549999999998</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="7">
         <v>34.21</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="7">
         <v>22.898</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="7">
         <v>11.311999999999999</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="7">
         <v>265.91800000000001</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="7">
         <v>3547.4789999999998</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="7">
         <v>168.47</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="7">
         <v>3715.9490000000001</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="11">
+      <c r="A69" s="8">
         <v>2005</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="7">
         <v>3902.192</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="7">
         <v>8.4920000000000009</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="7">
         <v>144.739</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="7">
         <v>4055.4229999999998</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="7">
         <v>43.929000000000002</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="7">
         <v>19.151</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="7">
         <v>24.777999999999999</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="7">
         <v>269.21699999999998</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="7">
         <v>3660.9690000000001</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="7">
         <v>150.01599999999999</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="7">
         <v>3810.9839999999999</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="11">
+      <c r="A70" s="8">
         <v>2006</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="7">
         <v>3908.0770000000002</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="7">
         <v>8.3710000000000004</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="7">
         <v>148.25399999999999</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="7">
         <v>4064.7020000000002</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="7">
         <v>42.691000000000003</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="7">
         <v>24.271000000000001</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="7">
         <v>18.420000000000002</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="7">
         <v>266.27699999999999</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="7">
         <v>3669.9189999999999</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="7">
         <v>146.92699999999999</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="7">
         <v>3816.8449999999998</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="11">
+      <c r="A71" s="8">
         <v>2007</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="7">
         <v>4005.3429999999998</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="7">
         <v>8.2729999999999997</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="7">
         <v>143.12799999999999</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="7">
         <v>4156.7449999999999</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="7">
         <v>51.396000000000001</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="7">
         <v>20.143999999999998</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="7">
         <v>31.251999999999999</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="7">
         <v>297.76600000000002</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="7">
         <v>3764.5610000000001</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="7">
         <v>125.67</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="7">
         <v>3890.2310000000002</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="11">
+      <c r="A72" s="8">
         <v>2008</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="7">
         <v>3974.3490000000002</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="7">
         <v>7.9260000000000002</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="7">
         <v>137.113</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="7">
         <v>4119.3879999999999</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="7">
         <v>57.018999999999998</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="7">
         <v>24.198</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="7">
         <v>32.820999999999998</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="7">
         <v>286.048</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="7">
         <v>3733.9650000000001</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="7">
         <v>132.197</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="7">
         <v>3866.1610000000001</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="11">
+      <c r="A73" s="8">
         <v>2009</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="7">
         <v>3809.837</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="7">
         <v>8.1649999999999991</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="7">
         <v>132.32900000000001</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="7">
         <v>3950.3310000000001</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="7">
         <v>52.191000000000003</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="7">
         <v>18.138000000000002</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="7">
         <v>34.052999999999997</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="7">
         <v>260.64999999999998</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="7">
         <v>3596.7950000000001</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="7">
         <v>126.938</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="7">
         <v>3723.7330000000002</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="11">
+      <c r="A74" s="8">
         <v>2010</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="7">
         <v>3972.386</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="7">
         <v>8.5920000000000005</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="7">
         <v>144.08199999999999</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="7">
         <v>4125.0600000000004</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="7">
         <v>45.082999999999998</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="7">
         <v>19.106000000000002</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="7">
         <v>25.977</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="7">
         <v>264.28500000000003</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="7">
         <v>3754.8409999999999</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="7">
         <v>131.91</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="7">
         <v>3886.752</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="11">
+      <c r="A75" s="8">
         <v>2011</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="7">
         <v>3948.1860000000001</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="7">
         <v>10.08</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="7">
         <v>141.875</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="7">
         <v>4100.1409999999996</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="7">
         <v>52.3</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="7">
         <v>15.048999999999999</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="7">
         <v>37.250999999999998</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="7">
         <v>254.792</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="7">
         <v>3749.846</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="7">
         <v>132.75399999999999</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="7">
         <v>3882.6</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="11">
+      <c r="A76" s="8">
         <v>2012</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="7">
         <v>3890.3580000000002</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="7">
         <v>11.301</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="7">
         <v>146.107</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="7">
         <v>4047.7649999999999</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="7">
         <v>59.256999999999998</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="7">
         <v>11.996</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="7">
         <v>47.261000000000003</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="7">
         <v>262.72000000000003</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="7">
         <v>3694.65</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="7">
         <v>137.65700000000001</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="7">
         <v>3832.306</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="11">
+      <c r="A77" s="8">
         <v>2013</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="7">
         <v>3903.7150000000001</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="7">
         <v>12.234</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="7">
         <v>150.01499999999999</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="7">
         <v>4065.9639999999999</v>
       </c>
-      <c r="F77">
-        <v>70.355000000000004</v>
-      </c>
-      <c r="G77">
-        <v>11.353</v>
-      </c>
-      <c r="H77">
-        <v>59.002000000000002</v>
-      </c>
-      <c r="I77">
-        <v>256.637</v>
-      </c>
-      <c r="J77">
+      <c r="F77" s="7">
+        <v>69.248999999999995</v>
+      </c>
+      <c r="G77" s="7">
+        <v>11.372999999999999</v>
+      </c>
+      <c r="H77" s="7">
+        <v>57.875999999999998</v>
+      </c>
+      <c r="I77" s="7">
+        <v>255.51</v>
+      </c>
+      <c r="J77" s="7">
         <v>3724.8679999999999</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="7">
         <v>143.46199999999999</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="7">
         <v>3868.33</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="11">
+      <c r="A78" s="8">
         <v>2014</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="7">
         <v>3937.0030000000002</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="7">
         <v>12.52</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="7">
         <v>144.083</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="7">
         <v>4093.6060000000002</v>
       </c>
-      <c r="F78">
-        <v>61.634</v>
-      </c>
-      <c r="G78">
-        <v>13.513999999999999</v>
-      </c>
-      <c r="H78">
-        <v>48.12</v>
-      </c>
-      <c r="I78">
-        <v>238.55600000000001</v>
-      </c>
-      <c r="J78">
+      <c r="F78" s="7">
+        <v>66.510000000000005</v>
+      </c>
+      <c r="G78" s="7">
+        <v>13.298</v>
+      </c>
+      <c r="H78" s="7">
+        <v>53.212000000000003</v>
+      </c>
+      <c r="I78" s="7">
+        <v>243.54400000000001</v>
+      </c>
+      <c r="J78" s="7">
         <v>3764.7</v>
       </c>
-      <c r="K78">
-        <v>138.47</v>
-      </c>
-      <c r="L78">
-        <v>3903.17</v>
+      <c r="K78" s="7">
+        <v>138.57400000000001</v>
+      </c>
+      <c r="L78" s="7">
+        <v>3903.2739999999999</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
+      <c r="A79" s="8">
+        <v>2015</v>
+      </c>
+      <c r="B79" s="7">
+        <v>3930.5790000000002</v>
+      </c>
+      <c r="C79" s="7">
+        <v>13.029</v>
+      </c>
+      <c r="D79" s="7">
+        <v>143.773</v>
+      </c>
+      <c r="E79" s="7">
+        <v>4087.3809999999999</v>
+      </c>
+      <c r="F79" s="7">
+        <v>75.602999999999994</v>
+      </c>
+      <c r="G79" s="7">
+        <v>9.1449999999999996</v>
+      </c>
+      <c r="H79" s="7">
+        <v>66.457999999999998</v>
+      </c>
+      <c r="I79" s="7">
+        <v>290.56400000000002</v>
+      </c>
+      <c r="J79" s="7">
+        <v>3724.5250000000001</v>
+      </c>
+      <c r="K79" s="7">
+        <v>138.75</v>
+      </c>
+      <c r="L79" s="7">
+        <v>3863.2750000000001</v>
+      </c>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="6">
+        <f>'MER 7.1'!I64</f>
+        <v>243.511</v>
+      </c>
+      <c r="C2" s="6">
+        <f>'MER 7.1'!B64</f>
+        <v>3637.529</v>
+      </c>
+      <c r="D2" s="5">
+        <f>B2/C2</f>
+        <v>6.6944071098814603E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="6">
+        <f>'MER 7.1'!I65</f>
+        <v>201.56399999999999</v>
+      </c>
+      <c r="C3" s="6">
+        <f>'MER 7.1'!B65</f>
+        <v>3580.0529999999999</v>
+      </c>
+      <c r="D3" s="5">
+        <f>B3/C3</f>
+        <v>5.6301959775455837E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="6">
+        <f>'MER 7.1'!I66</f>
+        <v>247.785</v>
+      </c>
+      <c r="C4" s="6">
+        <f>'MER 7.1'!B66</f>
+        <v>3698.4580000000001</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D8" si="0">B4/C4</f>
+        <v>6.69968403047973E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="6">
+        <f>'MER 7.1'!I67</f>
+        <v>227.57599999999999</v>
+      </c>
+      <c r="C5" s="6">
+        <f>'MER 7.1'!B67</f>
+        <v>3721.1590000000001</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>6.1157289973365822E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="6">
+        <f>'MER 7.1'!I68</f>
+        <v>265.91800000000001</v>
+      </c>
+      <c r="C6" s="6">
+        <f>'MER 7.1'!B68</f>
+        <v>3808.36</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>6.9824806478379145E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="6">
+        <f>'MER 7.1'!I69</f>
+        <v>269.21699999999998</v>
+      </c>
+      <c r="C7" s="6">
+        <f>'MER 7.1'!B69</f>
+        <v>3902.192</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>6.8991223394440859E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="6">
+        <f>'MER 7.1'!I70</f>
+        <v>266.27699999999999</v>
+      </c>
+      <c r="C8" s="6">
+        <f>'MER 7.1'!B70</f>
+        <v>3908.0770000000002</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>6.8135044422103247E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="6">
+        <f>'MER 7.1'!I71</f>
+        <v>297.76600000000002</v>
+      </c>
+      <c r="C9" s="6">
+        <f>'MER 7.1'!B71</f>
+        <v>4005.3429999999998</v>
+      </c>
+      <c r="D9" s="5">
+        <f>B9/C9</f>
+        <v>7.4342197409809851E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B10" s="6">
+        <f>'MER 7.1'!I72</f>
+        <v>286.048</v>
+      </c>
+      <c r="C10" s="6">
+        <f>'MER 7.1'!B72</f>
+        <v>3974.3490000000002</v>
+      </c>
+      <c r="D10" s="5">
+        <f>B10/C10</f>
+        <v>7.1973548372324628E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="6">
+        <f>'MER 7.1'!I73</f>
+        <v>260.64999999999998</v>
+      </c>
+      <c r="C11" s="6">
+        <f>'MER 7.1'!B73</f>
+        <v>3809.837</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" ref="D11:D15" si="1">B11/C11</f>
+        <v>6.8415000431776993E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="6">
+        <f>'MER 7.1'!I74</f>
+        <v>264.28500000000003</v>
+      </c>
+      <c r="C12" s="6">
+        <f>'MER 7.1'!B74</f>
+        <v>3972.386</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="1"/>
+        <v>6.6530543607796436E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="6">
+        <f>'MER 7.1'!I75</f>
+        <v>254.792</v>
+      </c>
+      <c r="C13" s="6">
+        <f>'MER 7.1'!B75</f>
+        <v>3948.1860000000001</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="1"/>
+        <v>6.4533940396931652E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="12">
+      <c r="B14" s="6">
+        <f>'MER 7.1'!I76</f>
+        <v>262.72000000000003</v>
+      </c>
+      <c r="C14" s="6">
+        <f>'MER 7.1'!B76</f>
+        <v>3890.3580000000002</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="1"/>
+        <v>6.7531060123515632E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="6">
+        <f>'MER 7.1'!I77</f>
+        <v>255.51</v>
+      </c>
+      <c r="C15" s="6">
+        <f>'MER 7.1'!B77</f>
+        <v>3903.7150000000001</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="1"/>
+        <v>6.5453036402503759E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="6">
         <f>'MER 7.1'!I78</f>
-        <v>238.55600000000001</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="12">
+        <v>243.54400000000001</v>
+      </c>
+      <c r="C16" s="6">
         <f>'MER 7.1'!B78</f>
         <v>3937.0030000000002</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <f>B2/B3</f>
-        <v>6.0593299014504179E-2</v>
+      <c r="D16" s="5">
+        <f>B16/C16</f>
+        <v>6.18602525829927E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="6">
+        <f>'MER 7.1'!I79</f>
+        <v>290.56400000000002</v>
+      </c>
+      <c r="C17" s="6">
+        <f>'MER 7.1'!B79</f>
+        <v>3930.5790000000002</v>
+      </c>
+      <c r="D17" s="5">
+        <f>B17/C17</f>
+        <v>7.3923968962333539E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="14">
+        <f>AVERAGE(D2:D17)</f>
+        <v>6.7057173983583865E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3914,28 +3741,273 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>2015</v>
+      </c>
+      <c r="C1">
+        <v>2016</v>
+      </c>
+      <c r="D1">
+        <v>2017</v>
+      </c>
+      <c r="E1">
+        <v>2018</v>
+      </c>
+      <c r="F1">
+        <v>2019</v>
+      </c>
+      <c r="G1">
+        <v>2020</v>
+      </c>
+      <c r="H1">
+        <v>2021</v>
+      </c>
+      <c r="I1">
+        <v>2022</v>
+      </c>
+      <c r="J1">
+        <v>2023</v>
+      </c>
+      <c r="K1">
+        <v>2024</v>
+      </c>
+      <c r="L1">
+        <v>2025</v>
+      </c>
+      <c r="M1">
+        <v>2026</v>
+      </c>
+      <c r="N1">
+        <v>2027</v>
+      </c>
+      <c r="O1">
+        <v>2028</v>
+      </c>
+      <c r="P1">
+        <v>2029</v>
+      </c>
+      <c r="Q1">
+        <v>2030</v>
+      </c>
+      <c r="R1">
+        <v>2031</v>
+      </c>
+      <c r="S1">
+        <v>2032</v>
+      </c>
+      <c r="T1">
+        <v>2033</v>
+      </c>
+      <c r="U1">
+        <v>2034</v>
+      </c>
+      <c r="V1">
+        <v>2035</v>
+      </c>
+      <c r="W1">
+        <v>2036</v>
+      </c>
+      <c r="X1">
+        <v>2037</v>
+      </c>
+      <c r="Y1">
+        <v>2038</v>
+      </c>
+      <c r="Z1">
+        <v>2039</v>
+      </c>
+      <c r="AA1">
+        <v>2040</v>
+      </c>
+      <c r="AB1">
+        <v>2041</v>
+      </c>
+      <c r="AC1">
+        <v>2042</v>
+      </c>
+      <c r="AD1">
+        <v>2043</v>
+      </c>
+      <c r="AE1">
+        <v>2044</v>
+      </c>
+      <c r="AF1">
+        <v>2045</v>
+      </c>
+      <c r="AG1">
+        <v>2046</v>
+      </c>
+      <c r="AH1">
+        <v>2047</v>
+      </c>
+      <c r="AI1">
+        <v>2048</v>
+      </c>
+      <c r="AJ1">
+        <v>2049</v>
+      </c>
+      <c r="AK1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="5">
-        <f>Calculations!B4</f>
-        <v>6.0593299014504179E-2</v>
+        <f>Calculations!D21</f>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="C2" s="5">
+        <f>$B2</f>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="D2" s="5">
+        <f t="shared" ref="D2:AK2" si="0">$B2</f>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="E2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="F2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="G2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="H2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="I2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="J2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="K2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="L2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="M2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="N2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="O2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="P2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="Q2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="R2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="S2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="T2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="U2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="V2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="W2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="X2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="Y2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="Z2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="AA2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="AB2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="AC2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="AD2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="AE2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="AF2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="AG2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="AH2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="AI2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="AJ2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
+      </c>
+      <c r="AK2" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7057173983583865E-2</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/BTaDLP/BAU Trans and Distr Loss Perc.xlsx
+++ b/InputData/elec/BTaDLP/BAU Trans and Distr Loss Perc.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BTaDLP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12075"/>
   </bookViews>
@@ -12,12 +17,12 @@
     <sheet name="Calculations" sheetId="4" r:id="rId3"/>
     <sheet name="BTaDLP" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="34">
   <si>
     <t>Source:</t>
   </si>
@@ -29,9 +34,6 @@
   </si>
   <si>
     <t>Transmission and Distribution Loss Percentage</t>
-  </si>
-  <si>
-    <t>Trans and Dist Loss Perc</t>
   </si>
   <si>
     <t>BTaDLP BAU Transmission and Distribution Loss Percentage</t>
@@ -108,11 +110,26 @@
   <si>
     <t>Table 7.1, Tab "Annual Data"</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>This variable represents the percentage difference in generation</t>
+  </si>
+  <si>
+    <t>and delivered energy from the U.S. power system.</t>
+  </si>
+  <si>
+    <t>Trans and Dist Loss Perc (dimensionless)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -144,18 +161,21 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -163,18 +183,21 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -206,9 +229,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -221,6 +241,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -233,12 +256,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -321,6 +347,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E0A-407E-88B4-8876B6204791}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -330,7 +361,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="15804288"/>
         <c:axId val="15805824"/>
@@ -459,7 +489,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -494,7 +524,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -703,15 +733,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -729,22 +761,40 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" location="electricity"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -754,2659 +804,2659 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="7"/>
+    <col min="1" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>7</v>
+      <c r="A1" s="12" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>26</v>
+      <c r="A2" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="str">
+      <c r="A4" s="10" t="str">
         <f>HYPERLINK("http://www.eia.gov/totalenergy/data/monthly/dataunits.cfm","Note: Information about data precision.")</f>
         <v>Note: Information about data precision.</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>25</v>
+      <c r="A6" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>24</v>
+      <c r="A7" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="I11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="K11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="L11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="9" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>23</v>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>1949</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>291.10000000000002</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="C13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="6">
         <v>5.0250000000000004</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>296.12400000000002</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>1.764</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>0.17499999999999999</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>1.5880000000000001</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>43.201000000000001</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>254.511</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="7">
+      <c r="K13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="6">
         <v>254.511</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>1950</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>329.14100000000002</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="C14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="6">
         <v>4.9459999999999997</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>334.08800000000002</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>1.9330000000000001</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>0.14699999999999999</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>1.786</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>44.43</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>291.44299999999998</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="7">
+      <c r="K14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="6">
         <v>291.44299999999998</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>1951</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>370.673</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="C15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="6">
         <v>4.6260000000000003</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>375.298</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>2.387</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>0.2</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>2.1869999999999998</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>47.201000000000001</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>330.28500000000003</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="7">
+      <c r="K15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="6">
         <v>330.28500000000003</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>1952</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>399.22399999999999</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="C16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="6">
         <v>4.6059999999999999</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>403.82900000000001</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>2.5059999999999998</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>0.23699999999999999</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>2.2690000000000001</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>49.933999999999997</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>356.16399999999999</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="7">
+      <c r="K16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="6">
         <v>356.16399999999999</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>1953</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>442.66500000000002</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="C17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="6">
         <v>4.3840000000000003</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>447.04899999999998</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>2.4369999999999998</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>0.42899999999999999</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>2.008</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>52.84</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>396.21699999999998</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="7">
+      <c r="K17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="6">
         <v>396.21699999999998</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>1954</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>471.68599999999998</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="7">
+      <c r="C18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="6">
         <v>4.5709999999999997</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>476.25799999999998</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>2.6880000000000002</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>0.34799999999999998</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>2.34</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>54.433999999999997</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <v>424.16399999999999</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="7">
+      <c r="K18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="6">
         <v>424.16399999999999</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>1955</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>547.03800000000001</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="7">
+      <c r="C19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="6">
         <v>3.2610000000000001</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>550.29899999999998</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>4.5670000000000002</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>0.5</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <v>4.0679999999999996</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>57.618000000000002</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <v>496.74799999999999</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="7">
+      <c r="K19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="6">
         <v>496.74799999999999</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>1956</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>600.66800000000001</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="C20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="6">
         <v>3.2080000000000002</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>603.87599999999998</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>5.1790000000000003</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>0.63100000000000001</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <v>4.548</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>62.143999999999998</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <v>546.28</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="7">
+      <c r="K20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="6">
         <v>546.28</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>1957</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>631.51700000000005</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="7">
+      <c r="C21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="6">
         <v>3.125</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>634.64200000000005</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>4.8559999999999999</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>1.254</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <v>3.601</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>62.423999999999999</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <v>575.82000000000005</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7">
+      <c r="K21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="6">
         <v>575.82000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>1958</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>645.09799999999996</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="7">
+      <c r="C22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="6">
         <v>3.3519999999999999</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <v>648.45100000000002</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <v>4.0780000000000003</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <v>0.76</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <v>3.3180000000000001</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <v>63.905999999999999</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="6">
         <v>587.86300000000006</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="7">
+      <c r="K22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="6">
         <v>587.86300000000006</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>1959</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>710.00599999999997</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="C23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="6">
         <v>3.3730000000000002</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>713.37900000000002</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>4.3929999999999998</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>0.83799999999999997</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <v>3.5539999999999998</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <v>70.045000000000002</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="6">
         <v>646.88800000000003</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="7">
+      <c r="K23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="6">
         <v>646.88800000000003</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>1960</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>755.54899999999998</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="7">
+      <c r="C24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="6">
         <v>3.6070000000000002</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <v>759.15599999999995</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <v>5.3230000000000004</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <v>0.78800000000000003</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="6">
         <v>4.5350000000000001</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <v>75.616</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="6">
         <v>688.07500000000005</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="7">
+      <c r="K24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="6">
         <v>688.07500000000005</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <v>1961</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>793.76</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="7">
+      <c r="C25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="6">
         <v>3.3650000000000002</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <v>797.12400000000002</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>3.17</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <v>0.91700000000000004</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="6">
         <v>2.254</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <v>77.427999999999997</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="6">
         <v>721.95</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="7">
+      <c r="K25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="6">
         <v>721.95</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="A26" s="7">
         <v>1962</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>854.53499999999997</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="7">
+      <c r="C26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="6">
         <v>3.4089999999999998</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <v>857.94399999999996</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <v>2.1970000000000001</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="6">
         <v>1.661</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="6">
         <v>0.53600000000000003</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <v>80.88</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="6">
         <v>777.6</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="7">
+      <c r="K26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="6">
         <v>777.6</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="A27" s="7">
         <v>1963</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>916.79300000000001</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="7">
+      <c r="C27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="6">
         <v>3.2349999999999999</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <v>920.02800000000002</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <v>2.0830000000000002</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <v>1.9850000000000001</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="6">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <v>87.513000000000005</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="6">
         <v>832.61300000000006</v>
       </c>
-      <c r="K27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="7">
+      <c r="K27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="6">
         <v>832.61300000000006</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="7">
         <v>1964</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>983.99</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="7">
+      <c r="C28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="6">
         <v>3.2280000000000002</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>987.21799999999996</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <v>6.2089999999999996</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <v>4.2530000000000001</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="6">
         <v>1.9550000000000001</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <v>93.114999999999995</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="6">
         <v>896.05899999999997</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="7">
+      <c r="K28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="6">
         <v>896.05899999999997</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="7">
         <v>1965</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>1055.252</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="7">
+      <c r="C29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="6">
         <v>3.1339999999999999</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <v>1058.386</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <v>3.5579999999999998</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <v>3.6989999999999998</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="6">
         <v>-0.14099999999999999</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <v>104.455</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="6">
         <v>953.78899999999999</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="7">
+      <c r="K29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="6">
         <v>953.78899999999999</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="7">
         <v>1966</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>1144.3499999999999</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="7">
+      <c r="C30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="6">
         <v>3.1819999999999999</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <v>1147.5319999999999</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="6">
         <v>4.2679999999999998</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="6">
         <v>3.1760000000000002</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="6">
         <v>1.0920000000000001</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="6">
         <v>113.479</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="6">
         <v>1035.145</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="7">
+      <c r="K30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="6">
         <v>1035.145</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="A31" s="7">
         <v>1967</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <v>1214.365</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="7">
+      <c r="C31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="6">
         <v>3.431</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <v>1217.796</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <v>4.0510000000000002</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="6">
         <v>4.3499999999999996</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="6">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
         <v>118.279</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="6">
         <v>1099.2170000000001</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="7">
+      <c r="K31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="6">
         <v>1099.2170000000001</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="A32" s="7">
         <v>1968</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>1329.443</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="7">
+      <c r="C32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="6">
         <v>3.383</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <v>1332.826</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="6">
         <v>3.6539999999999999</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="6">
         <v>4.2850000000000001</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="6">
         <v>-0.63100000000000001</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <v>129.32400000000001</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="6">
         <v>1202.8710000000001</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="7">
+      <c r="K32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="6">
         <v>1202.8710000000001</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="A33" s="7">
         <v>1969</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <v>1442.182</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="7">
+      <c r="C33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="6">
         <v>3.2759999999999998</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <v>1445.4580000000001</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="6">
         <v>4.9020000000000001</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="6">
         <v>3.83</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="6">
         <v>1.0720000000000001</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <v>132.696</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="6">
         <v>1313.8330000000001</v>
       </c>
-      <c r="K33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="7">
+      <c r="K33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="6">
         <v>1313.8330000000001</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="A34" s="7">
         <v>1970</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <v>1531.8679999999999</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="7">
+      <c r="C34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="6">
         <v>3.2440000000000002</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="6">
         <v>1535.1110000000001</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="6">
         <v>6.17</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="6">
         <v>4.2089999999999996</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="6">
         <v>1.96</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="6">
         <v>144.77199999999999</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="6">
         <v>1392.3</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="7">
+      <c r="K34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="6">
         <v>1392.3</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+      <c r="A35" s="7">
         <v>1971</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <v>1612.633</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="7">
+      <c r="C35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="6">
         <v>3.2210000000000001</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <v>1615.854</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <v>7.0439999999999996</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="6">
         <v>3.5139999999999998</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="6">
         <v>3.53</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <v>149.84399999999999</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="6">
         <v>1469.54</v>
       </c>
-      <c r="K35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="7">
+      <c r="K35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="6">
         <v>1469.54</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+      <c r="A36" s="7">
         <v>1972</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="6">
         <v>1749.662</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="7">
+      <c r="C36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="6">
         <v>3.3159999999999998</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="6">
         <v>1752.9780000000001</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="6">
         <v>10.494999999999999</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="6">
         <v>2.8090000000000002</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="6">
         <v>7.6870000000000003</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="6">
         <v>165.50399999999999</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="6">
         <v>1595.1610000000001</v>
       </c>
-      <c r="K36" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="7">
+      <c r="K36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="6">
         <v>1595.1610000000001</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+      <c r="A37" s="7">
         <v>1973</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="6">
         <v>1860.71</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="7">
+      <c r="C37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="6">
         <v>3.347</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <v>1864.057</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="6">
         <v>16.847999999999999</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="6">
         <v>2.57</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="6">
         <v>14.278</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="6">
         <v>165.42599999999999</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="6">
         <v>1712.9090000000001</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="7">
+      <c r="K37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="6">
         <v>1712.9090000000001</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="A38" s="7">
         <v>1974</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="6">
         <v>1867.14</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="7">
+      <c r="C38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="6">
         <v>3.18</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <v>1870.319</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="6">
         <v>15.42</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="6">
         <v>2.726</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="6">
         <v>12.694000000000001</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="6">
         <v>177.089</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="6">
         <v>1705.924</v>
       </c>
-      <c r="K38" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L38" s="7">
+      <c r="K38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="6">
         <v>1705.924</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+      <c r="A39" s="7">
         <v>1975</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <v>1917.6489999999999</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="7">
+      <c r="C39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="6">
         <v>3.1059999999999999</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <v>1920.7550000000001</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6">
         <v>11.268000000000001</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="6">
         <v>5.0830000000000002</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="6">
         <v>6.1849999999999996</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="6">
         <v>179.84899999999999</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="6">
         <v>1747.0909999999999</v>
       </c>
-      <c r="K39" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" s="7">
+      <c r="K39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="6">
         <v>1747.0909999999999</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+      <c r="A40" s="7">
         <v>1976</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="6">
         <v>2037.6959999999999</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="7">
+      <c r="C40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="6">
         <v>3.2170000000000001</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="6">
         <v>2040.914</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="6">
         <v>10.988</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="6">
         <v>2.3780000000000001</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="6">
         <v>8.61</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="6">
         <v>194.27799999999999</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="6">
         <v>1855.2460000000001</v>
       </c>
-      <c r="K40" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L40" s="7">
+      <c r="K40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="6">
         <v>1855.2460000000001</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+      <c r="A41" s="7">
         <v>1977</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="6">
         <v>2124.3229999999999</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="7">
+      <c r="C41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="6">
         <v>3.1240000000000001</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="6">
         <v>2127.4470000000001</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="6">
         <v>20.158999999999999</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="6">
         <v>2.7440000000000002</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="6">
         <v>17.416</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="6">
         <v>196.50200000000001</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="6">
         <v>1948.3610000000001</v>
       </c>
-      <c r="K41" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L41" s="7">
+      <c r="K41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="6">
         <v>1948.3610000000001</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+      <c r="A42" s="7">
         <v>1978</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="6">
         <v>2206.3310000000001</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="7">
+      <c r="C42" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="6">
         <v>3.0459999999999998</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="6">
         <v>2209.377</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="6">
         <v>21.207999999999998</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="6">
         <v>1.478</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="6">
         <v>19.73</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="6">
         <v>211.185</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="6">
         <v>2017.922</v>
       </c>
-      <c r="K42" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L42" s="7">
+      <c r="K42" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="6">
         <v>2017.922</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+      <c r="A43" s="7">
         <v>1979</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="6">
         <v>2247.3719999999998</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="7">
+      <c r="C43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="6">
         <v>3.2930000000000001</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="6">
         <v>2250.665</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="6">
         <v>22.515999999999998</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="6">
         <v>2.1819999999999999</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="6">
         <v>20.334</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="6">
         <v>199.9</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="6">
         <v>2071.0990000000002</v>
       </c>
-      <c r="K43" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L43" s="7">
+      <c r="K43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="6">
         <v>2071.0990000000002</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
+      <c r="A44" s="7">
         <v>1980</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="6">
         <v>2286.4389999999999</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="7">
+      <c r="C44" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="6">
         <v>3.161</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="6">
         <v>2289.6</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="6">
         <v>25.021000000000001</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="6">
         <v>4.0960000000000001</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="6">
         <v>20.925999999999998</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="6">
         <v>216.077</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="6">
         <v>2094.4490000000001</v>
       </c>
-      <c r="K44" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L44" s="7">
+      <c r="K44" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="6">
         <v>2094.4490000000001</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
+      <c r="A45" s="7">
         <v>1981</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="6">
         <v>2294.8119999999999</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="7">
+      <c r="C45" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="6">
         <v>3.161</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="6">
         <v>2297.973</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="6">
         <v>36.298000000000002</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="6">
         <v>3.06</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="6">
         <v>33.237000000000002</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="6">
         <v>184.108</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="6">
         <v>2147.1030000000001</v>
       </c>
-      <c r="K45" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L45" s="7">
+      <c r="K45" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="6">
         <v>2147.1030000000001</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
+      <c r="A46" s="7">
         <v>1982</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="6">
         <v>2241.2109999999998</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="7">
+      <c r="C46" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="6">
         <v>3.161</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="6">
         <v>2244.3719999999998</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="6">
         <v>32.851999999999997</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="6">
         <v>3.536</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="6">
         <v>29.315999999999999</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="6">
         <v>187.24700000000001</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="6">
         <v>2086.4409999999998</v>
       </c>
-      <c r="K46" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L46" s="7">
+      <c r="K46" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="6">
         <v>2086.4409999999998</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
+      <c r="A47" s="7">
         <v>1983</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="6">
         <v>2310.2849999999999</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="7">
+      <c r="C47" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="6">
         <v>3.161</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="6">
         <v>2313.4459999999999</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="6">
         <v>38.667999999999999</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="6">
         <v>3.3370000000000002</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="6">
         <v>35.33</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="6">
         <v>197.821</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="6">
         <v>2150.9549999999999</v>
       </c>
-      <c r="K47" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L47" s="7">
+      <c r="K47" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="6">
         <v>2150.9549999999999</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
+      <c r="A48" s="7">
         <v>1984</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="6">
         <v>2416.3040000000001</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="7">
+      <c r="C48" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="6">
         <v>3.161</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="6">
         <v>2419.4650000000001</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="6">
         <v>42.219000000000001</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="6">
         <v>2.5579999999999998</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="6">
         <v>39.661000000000001</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="6">
         <v>173.33</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="6">
         <v>2285.7959999999998</v>
       </c>
-      <c r="K48" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L48" s="7">
+      <c r="K48" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="6">
         <v>2285.7959999999998</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
+      <c r="A49" s="7">
         <v>1985</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="6">
         <v>2469.8409999999999</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="7">
+      <c r="C49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="6">
         <v>3.161</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="6">
         <v>2473.002</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="6">
         <v>45.895000000000003</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="6">
         <v>4.9649999999999999</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="6">
         <v>40.930999999999997</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="6">
         <v>189.959</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="6">
         <v>2323.9740000000002</v>
       </c>
-      <c r="K49" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L49" s="7">
+      <c r="K49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="6">
         <v>2323.9740000000002</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
+      <c r="A50" s="7">
         <v>1986</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="6">
         <v>2487.31</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="7">
+      <c r="C50" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="6">
         <v>3.161</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="6">
         <v>2490.471</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="6">
         <v>40.713000000000001</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="6">
         <v>4.8159999999999998</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="6">
         <v>35.896999999999998</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="6">
         <v>157.61500000000001</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="6">
         <v>2368.7530000000002</v>
       </c>
-      <c r="K50" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L50" s="7">
+      <c r="K50" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="6">
         <v>2368.7530000000002</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
+      <c r="A51" s="7">
         <v>1987</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="6">
         <v>2572.127</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="7">
+      <c r="C51" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="6">
         <v>3.161</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="6">
         <v>2575.288</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="6">
         <v>52.219000000000001</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="6">
         <v>5.8819999999999997</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="6">
         <v>46.337000000000003</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="6">
         <v>164.352</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="6">
         <v>2457.2719999999999</v>
       </c>
-      <c r="K51" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L51" s="7">
+      <c r="K51" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="6">
         <v>2457.2719999999999</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
+      <c r="A52" s="7">
         <v>1988</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="6">
         <v>2704.25</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="7">
+      <c r="C52" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="6">
         <v>3.161</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="6">
         <v>2707.4110000000001</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="6">
         <v>38.837000000000003</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="6">
         <v>7.0670000000000002</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="6">
         <v>31.77</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="6">
         <v>161.119</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J52" s="6">
         <v>2578.0619999999999</v>
       </c>
-      <c r="K52" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L52" s="7">
+      <c r="K52" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" s="6">
         <v>2578.0619999999999</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
+      <c r="A53" s="7">
         <v>1989</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="6">
         <v>2848.2269999999999</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <v>4.2510000000000003</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="6">
         <v>114.828</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="6">
         <v>2967.1460000000002</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="6">
         <v>26.11</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="6">
         <v>15.135</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="6">
         <v>10.976000000000001</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I53" s="6">
         <v>222.48699999999999</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J53" s="6">
         <v>2646.8090000000002</v>
       </c>
-      <c r="K53" s="7">
+      <c r="K53" s="6">
         <v>108.82599999999999</v>
       </c>
-      <c r="L53" s="7">
+      <c r="L53" s="6">
         <v>2755.6350000000002</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
+      <c r="A54" s="7">
         <v>1990</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="6">
         <v>2901.3220000000001</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="6">
         <v>5.8369999999999997</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="6">
         <v>130.83000000000001</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="6">
         <v>3037.8270000000002</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="6">
         <v>18.445</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="6">
         <v>16.134</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="6">
         <v>2.3119999999999998</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="6">
         <v>203.05600000000001</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J54" s="6">
         <v>2712.5549999999998</v>
       </c>
-      <c r="K54" s="7">
+      <c r="K54" s="6">
         <v>124.529</v>
       </c>
-      <c r="L54" s="7">
+      <c r="L54" s="6">
         <v>2837.0839999999998</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
+      <c r="A55" s="7">
         <v>1991</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="6">
         <v>2935.5610000000001</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <v>5.6589999999999998</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="6">
         <v>132.57900000000001</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="6">
         <v>3073.799</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="6">
         <v>21.931000000000001</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="6">
         <v>2.3050000000000002</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="6">
         <v>19.626000000000001</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="6">
         <v>207.36500000000001</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J55" s="6">
         <v>2762.0030000000002</v>
       </c>
-      <c r="K55" s="7">
+      <c r="K55" s="6">
         <v>124.057</v>
       </c>
-      <c r="L55" s="7">
+      <c r="L55" s="6">
         <v>2886.06</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
+      <c r="A56" s="7">
         <v>1992</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="6">
         <v>2934.3739999999998</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="6">
         <v>6.2279999999999998</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="6">
         <v>143.28</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="6">
         <v>3083.8820000000001</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="6">
         <v>28.247</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="6">
         <v>2.827</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="6">
         <v>25.42</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="6">
         <v>212.096</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="6">
         <v>2763.3649999999998</v>
       </c>
-      <c r="K56" s="7">
+      <c r="K56" s="6">
         <v>133.84100000000001</v>
       </c>
-      <c r="L56" s="7">
+      <c r="L56" s="6">
         <v>2897.2069999999999</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
+      <c r="A57" s="7">
         <v>1993</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="6">
         <v>3043.8969999999999</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="6">
         <v>7</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="6">
         <v>146.29400000000001</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="6">
         <v>3197.1909999999998</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="6">
         <v>31.358000000000001</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="6">
         <v>3.5409999999999999</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="6">
         <v>27.817</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I57" s="6">
         <v>224.30799999999999</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J57" s="6">
         <v>2861.462</v>
       </c>
-      <c r="K57" s="7">
+      <c r="K57" s="6">
         <v>139.238</v>
       </c>
-      <c r="L57" s="7">
+      <c r="L57" s="6">
         <v>3000.7</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
+      <c r="A58" s="7">
         <v>1994</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="6">
         <v>3088.7249999999999</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="6">
         <v>7.6189999999999998</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="6">
         <v>151.178</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="6">
         <v>3247.5219999999999</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="6">
         <v>46.832999999999998</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58" s="6">
         <v>2.0099999999999998</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58" s="6">
         <v>44.823</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I58" s="6">
         <v>211.45699999999999</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="6">
         <v>2934.5630000000001</v>
       </c>
-      <c r="K58" s="7">
+      <c r="K58" s="6">
         <v>146.32499999999999</v>
       </c>
-      <c r="L58" s="7">
+      <c r="L58" s="6">
         <v>3080.8879999999999</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="8">
+      <c r="A59" s="7">
         <v>1995</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="6">
         <v>3194.23</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="6">
         <v>8.2319999999999993</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="6">
         <v>151.02500000000001</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="6">
         <v>3353.4870000000001</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="6">
         <v>42.853999999999999</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="6">
         <v>3.6230000000000002</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="6">
         <v>39.231000000000002</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="6">
         <v>228.755</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="6">
         <v>3013.2869999999998</v>
       </c>
-      <c r="K59" s="7">
+      <c r="K59" s="6">
         <v>150.67699999999999</v>
       </c>
-      <c r="L59" s="7">
+      <c r="L59" s="6">
         <v>3163.9630000000002</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="8">
+      <c r="A60" s="7">
         <v>1996</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="6">
         <v>3284.1410000000001</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="6">
         <v>9.0299999999999994</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="6">
         <v>151.017</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="6">
         <v>3444.1880000000001</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="6">
         <v>43.497</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="6">
         <v>3.302</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="6">
         <v>40.195</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="6">
         <v>230.61699999999999</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J60" s="6">
         <v>3101.127</v>
       </c>
-      <c r="K60" s="7">
+      <c r="K60" s="6">
         <v>152.63800000000001</v>
       </c>
-      <c r="L60" s="7">
+      <c r="L60" s="6">
         <v>3253.7649999999999</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="8">
+      <c r="A61" s="7">
         <v>1997</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="6">
         <v>3329.375</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="6">
         <v>8.7010000000000005</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="6">
         <v>154.09700000000001</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="6">
         <v>3492.172</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="6">
         <v>43.030999999999999</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="6">
         <v>8.9740000000000002</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H61" s="6">
         <v>34.057000000000002</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61" s="6">
         <v>224.38</v>
       </c>
-      <c r="J61" s="7">
+      <c r="J61" s="6">
         <v>3145.61</v>
       </c>
-      <c r="K61" s="7">
+      <c r="K61" s="6">
         <v>156.239</v>
       </c>
-      <c r="L61" s="7">
+      <c r="L61" s="6">
         <v>3301.8490000000002</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="8">
+      <c r="A62" s="7">
         <v>1998</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="6">
         <v>3457.4160000000002</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="6">
         <v>8.7479999999999993</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="6">
         <v>154.13200000000001</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="6">
         <v>3620.2950000000001</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="6">
         <v>39.512999999999998</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G62" s="6">
         <v>13.656000000000001</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H62" s="6">
         <v>25.856999999999999</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="6">
         <v>221.05600000000001</v>
       </c>
-      <c r="J62" s="7">
+      <c r="J62" s="6">
         <v>3264.2310000000002</v>
       </c>
-      <c r="K62" s="7">
+      <c r="K62" s="6">
         <v>160.86600000000001</v>
       </c>
-      <c r="L62" s="7">
+      <c r="L62" s="6">
         <v>3425.0970000000002</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="8">
+      <c r="A63" s="7">
         <v>1999</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="6">
         <v>3529.982</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="6">
         <v>8.5630000000000006</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="6">
         <v>156.26400000000001</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="6">
         <v>3694.81</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="6">
         <v>43.215000000000003</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63" s="6">
         <v>14.222</v>
       </c>
-      <c r="H63" s="7">
+      <c r="H63" s="6">
         <v>28.992999999999999</v>
       </c>
-      <c r="I63" s="7">
+      <c r="I63" s="6">
         <v>240.08600000000001</v>
       </c>
-      <c r="J63" s="7">
+      <c r="J63" s="6">
         <v>3312.087</v>
       </c>
-      <c r="K63" s="7">
+      <c r="K63" s="6">
         <v>171.62899999999999</v>
       </c>
-      <c r="L63" s="7">
+      <c r="L63" s="6">
         <v>3483.7159999999999</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="8">
+      <c r="A64" s="7">
         <v>2000</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="6">
         <v>3637.529</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="6">
         <v>7.9029999999999996</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="6">
         <v>156.673</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="6">
         <v>3802.105</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="6">
         <v>48.591999999999999</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G64" s="6">
         <v>14.829000000000001</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H64" s="6">
         <v>33.762999999999998</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64" s="6">
         <v>243.511</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J64" s="6">
         <v>3421.4140000000002</v>
       </c>
-      <c r="K64" s="7">
+      <c r="K64" s="6">
         <v>170.94300000000001</v>
       </c>
-      <c r="L64" s="7">
+      <c r="L64" s="6">
         <v>3592.357</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
+      <c r="A65" s="7">
         <v>2001</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="6">
         <v>3580.0529999999999</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="6">
         <v>7.4160000000000004</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="6">
         <v>149.17500000000001</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="6">
         <v>3736.6439999999998</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="6">
         <v>38.5</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G65" s="6">
         <v>16.472999999999999</v>
       </c>
-      <c r="H65" s="7">
+      <c r="H65" s="6">
         <v>22.027000000000001</v>
       </c>
-      <c r="I65" s="7">
+      <c r="I65" s="6">
         <v>201.56399999999999</v>
       </c>
-      <c r="J65" s="7">
+      <c r="J65" s="6">
         <v>3394.4580000000001</v>
       </c>
-      <c r="K65" s="7">
+      <c r="K65" s="6">
         <v>162.649</v>
       </c>
-      <c r="L65" s="7">
+      <c r="L65" s="6">
         <v>3557.107</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="8">
+      <c r="A66" s="7">
         <v>2002</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="6">
         <v>3698.4580000000001</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="6">
         <v>7.415</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="6">
         <v>152.58000000000001</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="6">
         <v>3858.4520000000002</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="6">
         <v>36.779000000000003</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G66" s="6">
         <v>15.795999999999999</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H66" s="6">
         <v>20.983000000000001</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I66" s="6">
         <v>247.785</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J66" s="6">
         <v>3465.4659999999999</v>
       </c>
-      <c r="K66" s="7">
+      <c r="K66" s="6">
         <v>166.184</v>
       </c>
-      <c r="L66" s="7">
+      <c r="L66" s="6">
         <v>3631.65</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="8">
+      <c r="A67" s="7">
         <v>2003</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="6">
         <v>3721.1590000000001</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="6">
         <v>7.4960000000000004</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="6">
         <v>154.53</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="6">
         <v>3883.1849999999999</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="6">
         <v>30.395</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G67" s="6">
         <v>23.975000000000001</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H67" s="6">
         <v>6.42</v>
       </c>
-      <c r="I67" s="7">
+      <c r="I67" s="6">
         <v>227.57599999999999</v>
       </c>
-      <c r="J67" s="7">
+      <c r="J67" s="6">
         <v>3493.7339999999999</v>
       </c>
-      <c r="K67" s="7">
+      <c r="K67" s="6">
         <v>168.29499999999999</v>
       </c>
-      <c r="L67" s="7">
+      <c r="L67" s="6">
         <v>3662.029</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="8">
+      <c r="A68" s="7">
         <v>2004</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="6">
         <v>3808.36</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="6">
         <v>8.27</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="6">
         <v>153.92500000000001</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="6">
         <v>3970.5549999999998</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="6">
         <v>34.21</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G68" s="6">
         <v>22.898</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H68" s="6">
         <v>11.311999999999999</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I68" s="6">
         <v>265.91800000000001</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J68" s="6">
         <v>3547.4789999999998</v>
       </c>
-      <c r="K68" s="7">
+      <c r="K68" s="6">
         <v>168.47</v>
       </c>
-      <c r="L68" s="7">
+      <c r="L68" s="6">
         <v>3715.9490000000001</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="8">
+      <c r="A69" s="7">
         <v>2005</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="6">
         <v>3902.192</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="6">
         <v>8.4920000000000009</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="6">
         <v>144.739</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="6">
         <v>4055.4229999999998</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="6">
         <v>43.929000000000002</v>
       </c>
-      <c r="G69" s="7">
+      <c r="G69" s="6">
         <v>19.151</v>
       </c>
-      <c r="H69" s="7">
+      <c r="H69" s="6">
         <v>24.777999999999999</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I69" s="6">
         <v>269.21699999999998</v>
       </c>
-      <c r="J69" s="7">
+      <c r="J69" s="6">
         <v>3660.9690000000001</v>
       </c>
-      <c r="K69" s="7">
+      <c r="K69" s="6">
         <v>150.01599999999999</v>
       </c>
-      <c r="L69" s="7">
+      <c r="L69" s="6">
         <v>3810.9839999999999</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="8">
+      <c r="A70" s="7">
         <v>2006</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="6">
         <v>3908.0770000000002</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="6">
         <v>8.3710000000000004</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="6">
         <v>148.25399999999999</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="6">
         <v>4064.7020000000002</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="6">
         <v>42.691000000000003</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G70" s="6">
         <v>24.271000000000001</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H70" s="6">
         <v>18.420000000000002</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I70" s="6">
         <v>266.27699999999999</v>
       </c>
-      <c r="J70" s="7">
+      <c r="J70" s="6">
         <v>3669.9189999999999</v>
       </c>
-      <c r="K70" s="7">
+      <c r="K70" s="6">
         <v>146.92699999999999</v>
       </c>
-      <c r="L70" s="7">
+      <c r="L70" s="6">
         <v>3816.8449999999998</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="8">
+      <c r="A71" s="7">
         <v>2007</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="6">
         <v>4005.3429999999998</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="6">
         <v>8.2729999999999997</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="6">
         <v>143.12799999999999</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="6">
         <v>4156.7449999999999</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="6">
         <v>51.396000000000001</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G71" s="6">
         <v>20.143999999999998</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H71" s="6">
         <v>31.251999999999999</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I71" s="6">
         <v>297.76600000000002</v>
       </c>
-      <c r="J71" s="7">
+      <c r="J71" s="6">
         <v>3764.5610000000001</v>
       </c>
-      <c r="K71" s="7">
+      <c r="K71" s="6">
         <v>125.67</v>
       </c>
-      <c r="L71" s="7">
+      <c r="L71" s="6">
         <v>3890.2310000000002</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="8">
+      <c r="A72" s="7">
         <v>2008</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="6">
         <v>3974.3490000000002</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="6">
         <v>7.9260000000000002</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="6">
         <v>137.113</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="6">
         <v>4119.3879999999999</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="6">
         <v>57.018999999999998</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G72" s="6">
         <v>24.198</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H72" s="6">
         <v>32.820999999999998</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I72" s="6">
         <v>286.048</v>
       </c>
-      <c r="J72" s="7">
+      <c r="J72" s="6">
         <v>3733.9650000000001</v>
       </c>
-      <c r="K72" s="7">
+      <c r="K72" s="6">
         <v>132.197</v>
       </c>
-      <c r="L72" s="7">
+      <c r="L72" s="6">
         <v>3866.1610000000001</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="8">
+      <c r="A73" s="7">
         <v>2009</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="6">
         <v>3809.837</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="6">
         <v>8.1649999999999991</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="6">
         <v>132.32900000000001</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="6">
         <v>3950.3310000000001</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="6">
         <v>52.191000000000003</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G73" s="6">
         <v>18.138000000000002</v>
       </c>
-      <c r="H73" s="7">
+      <c r="H73" s="6">
         <v>34.052999999999997</v>
       </c>
-      <c r="I73" s="7">
+      <c r="I73" s="6">
         <v>260.64999999999998</v>
       </c>
-      <c r="J73" s="7">
+      <c r="J73" s="6">
         <v>3596.7950000000001</v>
       </c>
-      <c r="K73" s="7">
+      <c r="K73" s="6">
         <v>126.938</v>
       </c>
-      <c r="L73" s="7">
+      <c r="L73" s="6">
         <v>3723.7330000000002</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="8">
+      <c r="A74" s="7">
         <v>2010</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="6">
         <v>3972.386</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="6">
         <v>8.5920000000000005</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="6">
         <v>144.08199999999999</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="6">
         <v>4125.0600000000004</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="6">
         <v>45.082999999999998</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G74" s="6">
         <v>19.106000000000002</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H74" s="6">
         <v>25.977</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I74" s="6">
         <v>264.28500000000003</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J74" s="6">
         <v>3754.8409999999999</v>
       </c>
-      <c r="K74" s="7">
+      <c r="K74" s="6">
         <v>131.91</v>
       </c>
-      <c r="L74" s="7">
+      <c r="L74" s="6">
         <v>3886.752</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="8">
+      <c r="A75" s="7">
         <v>2011</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="6">
         <v>3948.1860000000001</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="6">
         <v>10.08</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="6">
         <v>141.875</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="6">
         <v>4100.1409999999996</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="6">
         <v>52.3</v>
       </c>
-      <c r="G75" s="7">
+      <c r="G75" s="6">
         <v>15.048999999999999</v>
       </c>
-      <c r="H75" s="7">
+      <c r="H75" s="6">
         <v>37.250999999999998</v>
       </c>
-      <c r="I75" s="7">
+      <c r="I75" s="6">
         <v>254.792</v>
       </c>
-      <c r="J75" s="7">
+      <c r="J75" s="6">
         <v>3749.846</v>
       </c>
-      <c r="K75" s="7">
+      <c r="K75" s="6">
         <v>132.75399999999999</v>
       </c>
-      <c r="L75" s="7">
+      <c r="L75" s="6">
         <v>3882.6</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="8">
+      <c r="A76" s="7">
         <v>2012</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="6">
         <v>3890.3580000000002</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="6">
         <v>11.301</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="6">
         <v>146.107</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76" s="6">
         <v>4047.7649999999999</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="6">
         <v>59.256999999999998</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G76" s="6">
         <v>11.996</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H76" s="6">
         <v>47.261000000000003</v>
       </c>
-      <c r="I76" s="7">
+      <c r="I76" s="6">
         <v>262.72000000000003</v>
       </c>
-      <c r="J76" s="7">
+      <c r="J76" s="6">
         <v>3694.65</v>
       </c>
-      <c r="K76" s="7">
+      <c r="K76" s="6">
         <v>137.65700000000001</v>
       </c>
-      <c r="L76" s="7">
+      <c r="L76" s="6">
         <v>3832.306</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="8">
+      <c r="A77" s="7">
         <v>2013</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="6">
         <v>3903.7150000000001</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="6">
         <v>12.234</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77" s="6">
         <v>150.01499999999999</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77" s="6">
         <v>4065.9639999999999</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="6">
         <v>69.248999999999995</v>
       </c>
-      <c r="G77" s="7">
+      <c r="G77" s="6">
         <v>11.372999999999999</v>
       </c>
-      <c r="H77" s="7">
+      <c r="H77" s="6">
         <v>57.875999999999998</v>
       </c>
-      <c r="I77" s="7">
+      <c r="I77" s="6">
         <v>255.51</v>
       </c>
-      <c r="J77" s="7">
+      <c r="J77" s="6">
         <v>3724.8679999999999</v>
       </c>
-      <c r="K77" s="7">
+      <c r="K77" s="6">
         <v>143.46199999999999</v>
       </c>
-      <c r="L77" s="7">
+      <c r="L77" s="6">
         <v>3868.33</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="8">
+      <c r="A78" s="7">
         <v>2014</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="6">
         <v>3937.0030000000002</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="6">
         <v>12.52</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="6">
         <v>144.083</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78" s="6">
         <v>4093.6060000000002</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="6">
         <v>66.510000000000005</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G78" s="6">
         <v>13.298</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H78" s="6">
         <v>53.212000000000003</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I78" s="6">
         <v>243.54400000000001</v>
       </c>
-      <c r="J78" s="7">
+      <c r="J78" s="6">
         <v>3764.7</v>
       </c>
-      <c r="K78" s="7">
+      <c r="K78" s="6">
         <v>138.57400000000001</v>
       </c>
-      <c r="L78" s="7">
+      <c r="L78" s="6">
         <v>3903.2739999999999</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="8">
+      <c r="A79" s="7">
         <v>2015</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="6">
         <v>3930.5790000000002</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="6">
         <v>13.029</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="6">
         <v>143.773</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E79" s="6">
         <v>4087.3809999999999</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79" s="6">
         <v>75.602999999999994</v>
       </c>
-      <c r="G79" s="7">
+      <c r="G79" s="6">
         <v>9.1449999999999996</v>
       </c>
-      <c r="H79" s="7">
+      <c r="H79" s="6">
         <v>66.457999999999998</v>
       </c>
-      <c r="I79" s="7">
+      <c r="I79" s="6">
         <v>290.56400000000002</v>
       </c>
-      <c r="J79" s="7">
+      <c r="J79" s="6">
         <v>3724.5250000000001</v>
       </c>
-      <c r="K79" s="7">
+      <c r="K79" s="6">
         <v>138.75</v>
       </c>
-      <c r="L79" s="7">
+      <c r="L79" s="6">
         <v>3863.2750000000001</v>
       </c>
     </row>
@@ -3424,10 +3474,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3435,7 +3485,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -3445,15 +3495,15 @@
       <c r="A2" s="1">
         <v>2000</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <f>'MER 7.1'!I64</f>
         <v>243.511</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <f>'MER 7.1'!B64</f>
         <v>3637.529</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <f>B2/C2</f>
         <v>6.6944071098814603E-2</v>
       </c>
@@ -3462,15 +3512,15 @@
       <c r="A3" s="1">
         <v>2001</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <f>'MER 7.1'!I65</f>
         <v>201.56399999999999</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <f>'MER 7.1'!B65</f>
         <v>3580.0529999999999</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f>B3/C3</f>
         <v>5.6301959775455837E-2</v>
       </c>
@@ -3479,15 +3529,15 @@
       <c r="A4" s="1">
         <v>2002</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <f>'MER 7.1'!I66</f>
         <v>247.785</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <f>'MER 7.1'!B66</f>
         <v>3698.4580000000001</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f t="shared" ref="D4:D8" si="0">B4/C4</f>
         <v>6.69968403047973E-2</v>
       </c>
@@ -3496,15 +3546,15 @@
       <c r="A5" s="1">
         <v>2003</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <f>'MER 7.1'!I67</f>
         <v>227.57599999999999</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <f>'MER 7.1'!B67</f>
         <v>3721.1590000000001</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f t="shared" si="0"/>
         <v>6.1157289973365822E-2</v>
       </c>
@@ -3513,15 +3563,15 @@
       <c r="A6" s="1">
         <v>2004</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <f>'MER 7.1'!I68</f>
         <v>265.91800000000001</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <f>'MER 7.1'!B68</f>
         <v>3808.36</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
         <v>6.9824806478379145E-2</v>
       </c>
@@ -3530,15 +3580,15 @@
       <c r="A7" s="1">
         <v>2005</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <f>'MER 7.1'!I69</f>
         <v>269.21699999999998</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <f>'MER 7.1'!B69</f>
         <v>3902.192</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>6.8991223394440859E-2</v>
       </c>
@@ -3547,15 +3597,15 @@
       <c r="A8" s="1">
         <v>2006</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <f>'MER 7.1'!I70</f>
         <v>266.27699999999999</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <f>'MER 7.1'!B70</f>
         <v>3908.0770000000002</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>6.8135044422103247E-2</v>
       </c>
@@ -3564,15 +3614,15 @@
       <c r="A9" s="1">
         <v>2007</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <f>'MER 7.1'!I71</f>
         <v>297.76600000000002</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <f>'MER 7.1'!B71</f>
         <v>4005.3429999999998</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <f>B9/C9</f>
         <v>7.4342197409809851E-2</v>
       </c>
@@ -3581,15 +3631,15 @@
       <c r="A10" s="1">
         <v>2008</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <f>'MER 7.1'!I72</f>
         <v>286.048</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <f>'MER 7.1'!B72</f>
         <v>3974.3490000000002</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <f>B10/C10</f>
         <v>7.1973548372324628E-2</v>
       </c>
@@ -3598,15 +3648,15 @@
       <c r="A11" s="1">
         <v>2009</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <f>'MER 7.1'!I73</f>
         <v>260.64999999999998</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <f>'MER 7.1'!B73</f>
         <v>3809.837</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f t="shared" ref="D11:D15" si="1">B11/C11</f>
         <v>6.8415000431776993E-2</v>
       </c>
@@ -3615,15 +3665,15 @@
       <c r="A12" s="1">
         <v>2010</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <f>'MER 7.1'!I74</f>
         <v>264.28500000000003</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <f>'MER 7.1'!B74</f>
         <v>3972.386</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <f t="shared" si="1"/>
         <v>6.6530543607796436E-2</v>
       </c>
@@ -3632,15 +3682,15 @@
       <c r="A13" s="1">
         <v>2011</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <f>'MER 7.1'!I75</f>
         <v>254.792</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <f>'MER 7.1'!B75</f>
         <v>3948.1860000000001</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <f t="shared" si="1"/>
         <v>6.4533940396931652E-2</v>
       </c>
@@ -3649,15 +3699,15 @@
       <c r="A14" s="1">
         <v>2012</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <f>'MER 7.1'!I76</f>
         <v>262.72000000000003</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <f>'MER 7.1'!B76</f>
         <v>3890.3580000000002</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <f t="shared" si="1"/>
         <v>6.7531060123515632E-2</v>
       </c>
@@ -3666,15 +3716,15 @@
       <c r="A15" s="1">
         <v>2013</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <f>'MER 7.1'!I77</f>
         <v>255.51</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <f>'MER 7.1'!B77</f>
         <v>3903.7150000000001</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <f t="shared" si="1"/>
         <v>6.5453036402503759E-2</v>
       </c>
@@ -3683,15 +3733,15 @@
       <c r="A16" s="1">
         <v>2014</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <f>'MER 7.1'!I78</f>
         <v>243.54400000000001</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <f>'MER 7.1'!B78</f>
         <v>3937.0030000000002</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <f>B16/C16</f>
         <v>6.18602525829927E-2</v>
       </c>
@@ -3700,31 +3750,31 @@
       <c r="A17" s="1">
         <v>2015</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <f>'MER 7.1'!I79</f>
         <v>290.56400000000002</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <f>'MER 7.1'!B79</f>
         <v>3930.5790000000002</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <f>B17/C17</f>
         <v>7.3923968962333539E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="14">
+      <c r="D21" s="13">
         <f>AVERAGE(D2:D17)</f>
         <v>6.7057173983583865E-2</v>
       </c>
@@ -3743,15 +3793,20 @@
   </sheetPr>
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
       <c r="B1">
         <v>2015</v>
       </c>
@@ -3861,151 +3916,151 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5">
+    <row r="2" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4">
         <f>Calculations!D21</f>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <f>$B2</f>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <f t="shared" ref="D2:AK2" si="0">$B2</f>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="X2" s="5">
+      <c r="X2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="Y2" s="5">
+      <c r="Y2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="Z2" s="5">
+      <c r="Z2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="AA2" s="5">
+      <c r="AA2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="AB2" s="5">
+      <c r="AB2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="AC2" s="5">
+      <c r="AC2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="AD2" s="5">
+      <c r="AD2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="AE2" s="5">
+      <c r="AE2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="AF2" s="5">
+      <c r="AF2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="AG2" s="5">
+      <c r="AG2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="AH2" s="5">
+      <c r="AH2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="AI2" s="5">
+      <c r="AI2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="AJ2" s="5">
+      <c r="AJ2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>
-      <c r="AK2" s="5">
+      <c r="AK2" s="4">
         <f t="shared" si="0"/>
         <v>6.7057173983583865E-2</v>
       </c>

--- a/InputData/elec/BTaDLP/BAU Trans and Distr Loss Perc.xlsx
+++ b/InputData/elec/BTaDLP/BAU Trans and Distr Loss Perc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\us-eps\InputData\elec\BTaDLP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-us\InputData\elec\BTaDLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F679011A-68B2-4B8A-9BFC-1C6A29282BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6FC856-0827-4238-87A9-5A3724A150AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1515" windowWidth="15990" windowHeight="14955" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19305" yWindow="-5760" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="35">
   <si>
     <t>Source:</t>
   </si>
@@ -124,22 +124,22 @@
     <t>(Billion Kilowatthours)</t>
   </si>
   <si>
-    <t>June 2020 Monthly Energy Review</t>
-  </si>
-  <si>
     <t>https://www.eia.gov/totalenergy/data/monthly/</t>
   </si>
   <si>
-    <t>May 2022 Monthly Energy Review</t>
+    <t>Electricity Sales to Ultimate Customers</t>
   </si>
   <si>
-    <t>Release Date: May 25, 2022</t>
+    <t>April 2023 Monthly Energy Review</t>
   </si>
   <si>
-    <t>Next Update: June 27, 2022</t>
+    <t>0</t>
   </si>
   <si>
-    <t>Electricity Sales to Ultimate Customers</t>
+    <t>Release Date: April 25, 2023</t>
+  </si>
+  <si>
+    <t>Next Update: May 25, 2023</t>
   </si>
 </sst>
 </file>
@@ -149,7 +149,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,18 +180,21 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -199,21 +202,18 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -233,12 +233,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -251,16 +252,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{A0D66D47-893E-4339-ABA2-2AA2E8FD27AB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -350,22 +356,22 @@
                   <c:v>6.5453036402503759E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.18602525829927E-2</c:v>
+                  <c:v>6.1850244389009698E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.2284686986993069E-2</c:v>
+                  <c:v>6.2550648440327747E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.1478867955155558E-2</c:v>
+                  <c:v>6.1694161512047659E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.8355059365000683E-2</c:v>
+                  <c:v>5.8639853040703863E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.466273552094774E-2</c:v>
+                  <c:v>5.5300124823514867E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.3580150841140213E-2</c:v>
+                  <c:v>5.4228610998833776E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -800,17 +806,17 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,37 +824,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -864,2897 +870,3000 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L85"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="str">
-        <f>HYPERLINK("http://www.eia.gov/totalenergy/data/monthly/dataunits.cfm","Note: Information about data precision.")</f>
-        <v>Note: Information about data precision.</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="8" t="s">
+      <c r="J11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="14">
         <v>1949</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="8">
         <v>291.10000000000002</v>
       </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="8">
         <v>5.0250000000000004</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="8">
         <v>296.12400000000002</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="8">
         <v>1.764</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="8">
         <v>0.17499999999999999</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="8">
         <v>1.5880000000000001</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="8">
         <v>43.201000000000001</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="8">
         <v>254.511</v>
       </c>
-      <c r="K13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13">
+      <c r="K13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="8">
         <v>254.511</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="14">
         <v>1950</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="8">
         <v>329.14100000000002</v>
       </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="8">
         <v>4.9459999999999997</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="8">
         <v>334.08800000000002</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="8">
         <v>1.9330000000000001</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="8">
         <v>0.14699999999999999</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="8">
         <v>1.786</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="8">
         <v>44.43</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="8">
         <v>291.44299999999998</v>
       </c>
-      <c r="K14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14">
+      <c r="K14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="8">
         <v>291.44299999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="14">
         <v>1951</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="8">
         <v>370.673</v>
       </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="8">
         <v>4.6260000000000003</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="8">
         <v>375.298</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="8">
         <v>2.387</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="8">
         <v>0.2</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="8">
         <v>2.1869999999999998</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="8">
         <v>47.201000000000001</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="8">
         <v>330.28500000000003</v>
       </c>
-      <c r="K15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15">
+      <c r="K15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="8">
         <v>330.28500000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="14">
         <v>1952</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="8">
         <v>399.22399999999999</v>
       </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="8">
         <v>4.6059999999999999</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="8">
         <v>403.82900000000001</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="8">
         <v>2.5059999999999998</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="8">
         <v>0.23699999999999999</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="8">
         <v>2.2690000000000001</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="8">
         <v>49.933999999999997</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="8">
         <v>356.16399999999999</v>
       </c>
-      <c r="K16" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16">
+      <c r="K16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="8">
         <v>356.16399999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="14">
         <v>1953</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="8">
         <v>442.66500000000002</v>
       </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="8">
         <v>4.3840000000000003</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="8">
         <v>447.04899999999998</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="8">
         <v>2.4369999999999998</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="8">
         <v>0.42899999999999999</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="8">
         <v>2.008</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="8">
         <v>52.84</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="8">
         <v>396.21699999999998</v>
       </c>
-      <c r="K17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17">
+      <c r="K17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="8">
         <v>396.21699999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="14">
         <v>1954</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="8">
         <v>471.68599999999998</v>
       </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="8">
         <v>4.5709999999999997</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="8">
         <v>476.25799999999998</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="8">
         <v>2.6880000000000002</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="8">
         <v>0.34799999999999998</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="8">
         <v>2.34</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="8">
         <v>54.433999999999997</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="8">
         <v>424.16399999999999</v>
       </c>
-      <c r="K18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18">
+      <c r="K18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="8">
         <v>424.16399999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="14">
         <v>1955</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="8">
         <v>547.03800000000001</v>
       </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="8">
         <v>3.2610000000000001</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="8">
         <v>550.29899999999998</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="8">
         <v>4.5670000000000002</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="8">
         <v>0.5</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="8">
         <v>4.0679999999999996</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="8">
         <v>57.618000000000002</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="8">
         <v>496.74799999999999</v>
       </c>
-      <c r="K19" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19">
+      <c r="K19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="8">
         <v>496.74799999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="14">
         <v>1956</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="8">
         <v>600.66800000000001</v>
       </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="8">
         <v>3.2080000000000002</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="8">
         <v>603.87599999999998</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="8">
         <v>5.1790000000000003</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="8">
         <v>0.63100000000000001</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="8">
         <v>4.548</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="8">
         <v>62.143999999999998</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="8">
         <v>546.28</v>
       </c>
-      <c r="K20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20">
+      <c r="K20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="8">
         <v>546.28</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="14">
         <v>1957</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="8">
         <v>631.51700000000005</v>
       </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21">
+      <c r="C21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="8">
         <v>3.125</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="8">
         <v>634.64200000000005</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="8">
         <v>4.8559999999999999</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="8">
         <v>1.254</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="8">
         <v>3.601</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="8">
         <v>62.423999999999999</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="8">
         <v>575.82000000000005</v>
       </c>
-      <c r="K21" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21">
+      <c r="K21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="8">
         <v>575.82000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="14">
         <v>1958</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="8">
         <v>645.09799999999996</v>
       </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="8">
         <v>3.3519999999999999</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="8">
         <v>648.45100000000002</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="8">
         <v>4.0780000000000003</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="8">
         <v>0.76</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="8">
         <v>3.3180000000000001</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="8">
         <v>63.905999999999999</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="8">
         <v>587.86300000000006</v>
       </c>
-      <c r="K22" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22">
+      <c r="K22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="8">
         <v>587.86300000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="14">
         <v>1959</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="8">
         <v>710.00599999999997</v>
       </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23">
+      <c r="C23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="8">
         <v>3.3730000000000002</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="8">
         <v>713.37900000000002</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="8">
         <v>4.3929999999999998</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="8">
         <v>0.83799999999999997</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="8">
         <v>3.5539999999999998</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="8">
         <v>70.045000000000002</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="8">
         <v>646.88800000000003</v>
       </c>
-      <c r="K23" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23">
+      <c r="K23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="8">
         <v>646.88800000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="14">
         <v>1960</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="8">
         <v>755.54899999999998</v>
       </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="8">
         <v>3.6070000000000002</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="8">
         <v>759.15599999999995</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="8">
         <v>5.3230000000000004</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="8">
         <v>0.78800000000000003</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="8">
         <v>4.5350000000000001</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="8">
         <v>75.616</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="8">
         <v>688.07500000000005</v>
       </c>
-      <c r="K24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24">
+      <c r="K24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="8">
         <v>688.07500000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="14">
         <v>1961</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="8">
         <v>793.76</v>
       </c>
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="8">
         <v>3.3650000000000002</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="8">
         <v>797.12400000000002</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="8">
         <v>3.17</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="8">
         <v>0.91700000000000004</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="8">
         <v>2.254</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="8">
         <v>77.427999999999997</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="8">
         <v>721.95</v>
       </c>
-      <c r="K25" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25">
+      <c r="K25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="8">
         <v>721.95</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="14">
         <v>1962</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="8">
         <v>854.53499999999997</v>
       </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26">
+      <c r="C26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="8">
         <v>3.4089999999999998</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="8">
         <v>857.94399999999996</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="8">
         <v>2.1970000000000001</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="8">
         <v>1.661</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="8">
         <v>0.53600000000000003</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="8">
         <v>80.88</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="8">
         <v>777.6</v>
       </c>
-      <c r="K26" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26">
+      <c r="K26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="8">
         <v>777.6</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="14">
         <v>1963</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="8">
         <v>916.79300000000001</v>
       </c>
-      <c r="C27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27">
+      <c r="C27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="8">
         <v>3.2349999999999999</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="8">
         <v>920.02800000000002</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="8">
         <v>2.0830000000000002</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="8">
         <v>1.9850000000000001</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="8">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="8">
         <v>87.513000000000005</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="8">
         <v>832.61300000000006</v>
       </c>
-      <c r="K27" t="s">
-        <v>18</v>
-      </c>
-      <c r="L27">
+      <c r="K27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="8">
         <v>832.61300000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="14">
         <v>1964</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="8">
         <v>983.99</v>
       </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28">
+      <c r="C28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="8">
         <v>3.2280000000000002</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="8">
         <v>987.21799999999996</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="8">
         <v>6.2089999999999996</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="8">
         <v>4.2530000000000001</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="8">
         <v>1.9550000000000001</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="8">
         <v>93.114999999999995</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="8">
         <v>896.05899999999997</v>
       </c>
-      <c r="K28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28">
+      <c r="K28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="8">
         <v>896.05899999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="14">
         <v>1965</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="8">
         <v>1055.252</v>
       </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29">
+      <c r="C29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="8">
         <v>3.1339999999999999</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="8">
         <v>1058.386</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="8">
         <v>3.5579999999999998</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="8">
         <v>3.6989999999999998</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="8">
         <v>-0.14099999999999999</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="8">
         <v>104.455</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="8">
         <v>953.78899999999999</v>
       </c>
-      <c r="K29" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29">
+      <c r="K29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="8">
         <v>953.78899999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="14">
         <v>1966</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="8">
         <v>1144.3499999999999</v>
       </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30">
+      <c r="C30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="8">
         <v>3.1819999999999999</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="8">
         <v>1147.5319999999999</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="8">
         <v>4.2679999999999998</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="8">
         <v>3.1760000000000002</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="8">
         <v>1.0920000000000001</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="8">
         <v>113.479</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="8">
         <v>1035.145</v>
       </c>
-      <c r="K30" t="s">
-        <v>18</v>
-      </c>
-      <c r="L30">
+      <c r="K30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="8">
         <v>1035.145</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="14">
         <v>1967</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="8">
         <v>1214.365</v>
       </c>
-      <c r="C31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31">
+      <c r="C31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="8">
         <v>3.431</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="8">
         <v>1217.796</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="8">
         <v>4.0510000000000002</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="8">
         <v>4.3499999999999996</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="8">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="8">
         <v>118.279</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="8">
         <v>1099.2170000000001</v>
       </c>
-      <c r="K31" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31">
+      <c r="K31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="8">
         <v>1099.2170000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="14">
         <v>1968</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="8">
         <v>1329.443</v>
       </c>
-      <c r="C32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32">
+      <c r="C32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="8">
         <v>3.383</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="8">
         <v>1332.826</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="8">
         <v>3.6539999999999999</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="8">
         <v>4.2850000000000001</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="8">
         <v>-0.63100000000000001</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="8">
         <v>129.32400000000001</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="8">
         <v>1202.8710000000001</v>
       </c>
-      <c r="K32" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32">
+      <c r="K32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="8">
         <v>1202.8710000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="14">
         <v>1969</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="8">
         <v>1442.182</v>
       </c>
-      <c r="C33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33">
+      <c r="C33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="8">
         <v>3.2759999999999998</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="8">
         <v>1445.4580000000001</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="8">
         <v>4.9020000000000001</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="8">
         <v>3.83</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="8">
         <v>1.0720000000000001</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="8">
         <v>132.696</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="8">
         <v>1313.8330000000001</v>
       </c>
-      <c r="K33" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33">
+      <c r="K33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="8">
         <v>1313.8330000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="14">
         <v>1970</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="8">
         <v>1531.8679999999999</v>
       </c>
-      <c r="C34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34">
+      <c r="C34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="8">
         <v>3.2440000000000002</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="8">
         <v>1535.1110000000001</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="8">
         <v>6.17</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="8">
         <v>4.2089999999999996</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="8">
         <v>1.96</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="8">
         <v>144.77199999999999</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="8">
         <v>1392.3</v>
       </c>
-      <c r="K34" t="s">
-        <v>18</v>
-      </c>
-      <c r="L34">
+      <c r="K34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="8">
         <v>1392.3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="14">
         <v>1971</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="8">
         <v>1612.633</v>
       </c>
-      <c r="C35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35">
+      <c r="C35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="8">
         <v>3.2210000000000001</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="8">
         <v>1615.854</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="8">
         <v>7.0439999999999996</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="8">
         <v>3.5139999999999998</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="8">
         <v>3.53</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="8">
         <v>149.84399999999999</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="8">
         <v>1469.54</v>
       </c>
-      <c r="K35" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35">
+      <c r="K35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="8">
         <v>1469.54</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="14">
         <v>1972</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="8">
         <v>1749.662</v>
       </c>
-      <c r="C36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36">
+      <c r="C36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="8">
         <v>3.3159999999999998</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="8">
         <v>1752.9780000000001</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="8">
         <v>10.494999999999999</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="8">
         <v>2.8090000000000002</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="8">
         <v>7.6870000000000003</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="8">
         <v>165.50399999999999</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="8">
         <v>1595.1610000000001</v>
       </c>
-      <c r="K36" t="s">
-        <v>18</v>
-      </c>
-      <c r="L36">
+      <c r="K36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="8">
         <v>1595.1610000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="14">
         <v>1973</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="8">
         <v>1860.71</v>
       </c>
-      <c r="C37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37">
+      <c r="C37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="8">
         <v>3.347</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="8">
         <v>1864.057</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="8">
         <v>16.847999999999999</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="8">
         <v>2.57</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="8">
         <v>14.278</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="8">
         <v>165.42599999999999</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="8">
         <v>1712.9090000000001</v>
       </c>
-      <c r="K37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37">
+      <c r="K37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="8">
         <v>1712.9090000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="14">
         <v>1974</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="8">
         <v>1867.14</v>
       </c>
-      <c r="C38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38">
+      <c r="C38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="8">
         <v>3.18</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="8">
         <v>1870.319</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="8">
         <v>15.42</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="8">
         <v>2.726</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="8">
         <v>12.694000000000001</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="8">
         <v>177.089</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="8">
         <v>1705.924</v>
       </c>
-      <c r="K38" t="s">
-        <v>18</v>
-      </c>
-      <c r="L38">
+      <c r="K38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="8">
         <v>1705.924</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="14">
         <v>1975</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="8">
         <v>1917.6489999999999</v>
       </c>
-      <c r="C39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39">
+      <c r="C39" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="8">
         <v>3.1059999999999999</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="8">
         <v>1920.7550000000001</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="8">
         <v>11.268000000000001</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="8">
         <v>5.0830000000000002</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="8">
         <v>6.1849999999999996</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="8">
         <v>179.84899999999999</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="8">
         <v>1747.0909999999999</v>
       </c>
-      <c r="K39" t="s">
-        <v>18</v>
-      </c>
-      <c r="L39">
+      <c r="K39" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="8">
         <v>1747.0909999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="14">
         <v>1976</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="8">
         <v>2037.6959999999999</v>
       </c>
-      <c r="C40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40">
+      <c r="C40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="8">
         <v>3.2170000000000001</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="8">
         <v>2040.914</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="8">
         <v>10.988</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="8">
         <v>2.3780000000000001</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="8">
         <v>8.61</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="8">
         <v>194.27799999999999</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="8">
         <v>1855.2460000000001</v>
       </c>
-      <c r="K40" t="s">
-        <v>18</v>
-      </c>
-      <c r="L40">
+      <c r="K40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="8">
         <v>1855.2460000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="14">
         <v>1977</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="8">
         <v>2124.3229999999999</v>
       </c>
-      <c r="C41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41">
+      <c r="C41" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="8">
         <v>3.1240000000000001</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="8">
         <v>2127.4470000000001</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="8">
         <v>20.158999999999999</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="8">
         <v>2.7440000000000002</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="8">
         <v>17.416</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="8">
         <v>196.50200000000001</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="8">
         <v>1948.3610000000001</v>
       </c>
-      <c r="K41" t="s">
-        <v>18</v>
-      </c>
-      <c r="L41">
+      <c r="K41" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="8">
         <v>1948.3610000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="14">
         <v>1978</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="8">
         <v>2206.3310000000001</v>
       </c>
-      <c r="C42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42">
+      <c r="C42" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="8">
         <v>3.0459999999999998</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="8">
         <v>2209.377</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="8">
         <v>21.207999999999998</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="8">
         <v>1.478</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="8">
         <v>19.73</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="8">
         <v>211.185</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="8">
         <v>2017.922</v>
       </c>
-      <c r="K42" t="s">
-        <v>18</v>
-      </c>
-      <c r="L42">
+      <c r="K42" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="8">
         <v>2017.922</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="14">
         <v>1979</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="8">
         <v>2247.3719999999998</v>
       </c>
-      <c r="C43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43">
+      <c r="C43" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="8">
         <v>3.2930000000000001</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="8">
         <v>2250.665</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="8">
         <v>22.515999999999998</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="8">
         <v>2.1819999999999999</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="8">
         <v>20.334</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="8">
         <v>199.9</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="8">
         <v>2071.0990000000002</v>
       </c>
-      <c r="K43" t="s">
-        <v>18</v>
-      </c>
-      <c r="L43">
+      <c r="K43" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="8">
         <v>2071.0990000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="14">
         <v>1980</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="8">
         <v>2286.4389999999999</v>
       </c>
-      <c r="C44" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44">
+      <c r="C44" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="8">
         <v>3.161</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="8">
         <v>2289.6</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="8">
         <v>25.021000000000001</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="8">
         <v>4.0960000000000001</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="8">
         <v>20.925999999999998</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="8">
         <v>216.077</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="8">
         <v>2094.4490000000001</v>
       </c>
-      <c r="K44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L44">
+      <c r="K44" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="8">
         <v>2094.4490000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="14">
         <v>1981</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="8">
         <v>2294.8119999999999</v>
       </c>
-      <c r="C45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45">
+      <c r="C45" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="8">
         <v>3.161</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="8">
         <v>2297.973</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="8">
         <v>36.298000000000002</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="8">
         <v>3.06</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="8">
         <v>33.237000000000002</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="8">
         <v>184.108</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="8">
         <v>2147.1030000000001</v>
       </c>
-      <c r="K45" t="s">
-        <v>18</v>
-      </c>
-      <c r="L45">
+      <c r="K45" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45" s="8">
         <v>2147.1030000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" s="14">
         <v>1982</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="8">
         <v>2241.2109999999998</v>
       </c>
-      <c r="C46" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46">
+      <c r="C46" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="8">
         <v>3.161</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="8">
         <v>2244.3719999999998</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="8">
         <v>32.851999999999997</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="8">
         <v>3.536</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="8">
         <v>29.315999999999999</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="8">
         <v>187.24700000000001</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="8">
         <v>2086.4409999999998</v>
       </c>
-      <c r="K46" t="s">
-        <v>18</v>
-      </c>
-      <c r="L46">
+      <c r="K46" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" s="8">
         <v>2086.4409999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="14">
         <v>1983</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="8">
         <v>2310.2849999999999</v>
       </c>
-      <c r="C47" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47">
+      <c r="C47" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="8">
         <v>3.161</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="8">
         <v>2313.4459999999999</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="8">
         <v>38.667999999999999</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="8">
         <v>3.3370000000000002</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="8">
         <v>35.33</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="8">
         <v>197.821</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="8">
         <v>2150.9549999999999</v>
       </c>
-      <c r="K47" t="s">
-        <v>18</v>
-      </c>
-      <c r="L47">
+      <c r="K47" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="8">
         <v>2150.9549999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" s="14">
         <v>1984</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="8">
         <v>2416.3040000000001</v>
       </c>
-      <c r="C48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48">
+      <c r="C48" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="8">
         <v>3.161</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="8">
         <v>2419.4650000000001</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="8">
         <v>42.219000000000001</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="8">
         <v>2.5579999999999998</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="8">
         <v>39.661000000000001</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="8">
         <v>173.33</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="8">
         <v>2285.7959999999998</v>
       </c>
-      <c r="K48" t="s">
-        <v>18</v>
-      </c>
-      <c r="L48">
+      <c r="K48" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="8">
         <v>2285.7959999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" s="14">
         <v>1985</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="8">
         <v>2469.8409999999999</v>
       </c>
-      <c r="C49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49">
+      <c r="C49" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="8">
         <v>3.161</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="8">
         <v>2473.002</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="8">
         <v>45.895000000000003</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="8">
         <v>4.9649999999999999</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="8">
         <v>40.930999999999997</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="8">
         <v>189.959</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="8">
         <v>2323.9740000000002</v>
       </c>
-      <c r="K49" t="s">
-        <v>18</v>
-      </c>
-      <c r="L49">
+      <c r="K49" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="8">
         <v>2323.9740000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" s="14">
         <v>1986</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="8">
         <v>2487.31</v>
       </c>
-      <c r="C50" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50">
+      <c r="C50" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="8">
         <v>3.161</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="8">
         <v>2490.471</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="8">
         <v>40.713000000000001</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="8">
         <v>4.8159999999999998</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="8">
         <v>35.896999999999998</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="8">
         <v>157.61500000000001</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="8">
         <v>2368.7530000000002</v>
       </c>
-      <c r="K50" t="s">
-        <v>18</v>
-      </c>
-      <c r="L50">
+      <c r="K50" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="8">
         <v>2368.7530000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" s="14">
         <v>1987</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="8">
         <v>2572.127</v>
       </c>
-      <c r="C51" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51">
+      <c r="C51" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="8">
         <v>3.161</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="8">
         <v>2575.288</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="8">
         <v>52.219000000000001</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="8">
         <v>5.8819999999999997</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="8">
         <v>46.337000000000003</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="8">
         <v>164.352</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="8">
         <v>2457.2719999999999</v>
       </c>
-      <c r="K51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L51">
+      <c r="K51" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="8">
         <v>2457.2719999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" s="14">
         <v>1988</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="8">
         <v>2704.25</v>
       </c>
-      <c r="C52" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52">
+      <c r="C52" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="8">
         <v>3.161</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="8">
         <v>2707.4110000000001</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="8">
         <v>38.837000000000003</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="8">
         <v>7.0670000000000002</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="8">
         <v>31.77</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="8">
         <v>161.119</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="8">
         <v>2578.0619999999999</v>
       </c>
-      <c r="K52" t="s">
-        <v>18</v>
-      </c>
-      <c r="L52">
+      <c r="K52" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L52" s="8">
         <v>2578.0619999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" s="14">
         <v>1989</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="8">
         <v>2848.2269999999999</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="8">
         <v>4.2510000000000003</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="8">
         <v>114.828</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="8">
         <v>2967.1460000000002</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="8">
         <v>26.11</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="8">
         <v>15.135</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="8">
         <v>10.976000000000001</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="8">
         <v>222.48699999999999</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="8">
         <v>2646.8090000000002</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="8">
         <v>108.82599999999999</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="8">
         <v>2755.6350000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" s="14">
         <v>1990</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="8">
         <v>2901.3220000000001</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="8">
         <v>5.8369999999999997</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="8">
         <v>130.83000000000001</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="8">
         <v>3037.8270000000002</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="8">
         <v>18.445</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="8">
         <v>16.134</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="8">
         <v>2.3119999999999998</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="8">
         <v>203.05600000000001</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="8">
         <v>2712.5549999999998</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="8">
         <v>124.529</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="8">
         <v>2837.0839999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" s="14">
         <v>1991</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="8">
         <v>2935.5610000000001</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="8">
         <v>5.6589999999999998</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="8">
         <v>132.57900000000001</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="8">
         <v>3073.799</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="8">
         <v>21.931000000000001</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="8">
         <v>2.3050000000000002</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="8">
         <v>19.626000000000001</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="8">
         <v>207.36500000000001</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="8">
         <v>2762.0030000000002</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="8">
         <v>124.057</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="8">
         <v>2886.06</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" s="14">
         <v>1992</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="8">
         <v>2934.3739999999998</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="8">
         <v>6.2279999999999998</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="8">
         <v>143.28</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="8">
         <v>3083.8820000000001</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="8">
         <v>28.247</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="8">
         <v>2.827</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="8">
         <v>25.42</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="8">
         <v>212.096</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="8">
         <v>2763.3649999999998</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="8">
         <v>133.84100000000001</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="8">
         <v>2897.2069999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" s="14">
         <v>1993</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="8">
         <v>3043.8969999999999</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="8">
         <v>7</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="8">
         <v>146.29400000000001</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="8">
         <v>3197.1909999999998</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="8">
         <v>31.358000000000001</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="8">
         <v>3.5409999999999999</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="8">
         <v>27.817</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="8">
         <v>224.30799999999999</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="8">
         <v>2861.462</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="8">
         <v>139.238</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="8">
         <v>3000.7</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" s="14">
         <v>1994</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="8">
         <v>3088.7249999999999</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="8">
         <v>7.6189999999999998</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="8">
         <v>151.178</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="8">
         <v>3247.5219999999999</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="8">
         <v>46.832999999999998</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="8">
         <v>2.0099999999999998</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="8">
         <v>44.823</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="8">
         <v>211.45699999999999</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="8">
         <v>2934.5630000000001</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="8">
         <v>146.32499999999999</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="8">
         <v>3080.8879999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" s="14">
         <v>1995</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="8">
         <v>3194.23</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="8">
         <v>8.2319999999999993</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="8">
         <v>151.02500000000001</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="8">
         <v>3353.4870000000001</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="8">
         <v>42.853999999999999</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="8">
         <v>3.6230000000000002</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="8">
         <v>39.231000000000002</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="8">
         <v>228.755</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="8">
         <v>3013.2869999999998</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="8">
         <v>150.67699999999999</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="8">
         <v>3163.9630000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" s="14">
         <v>1996</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="8">
         <v>3284.1410000000001</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="8">
         <v>9.0299999999999994</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="8">
         <v>151.017</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="8">
         <v>3444.1880000000001</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="8">
         <v>43.497</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="8">
         <v>3.302</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="8">
         <v>40.195</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="8">
         <v>230.61699999999999</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="8">
         <v>3101.127</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="8">
         <v>152.63800000000001</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="8">
         <v>3253.7649999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61" s="14">
         <v>1997</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="8">
         <v>3329.375</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="8">
         <v>8.7010000000000005</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="8">
         <v>154.09700000000001</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="8">
         <v>3492.172</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="8">
         <v>43.030999999999999</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="8">
         <v>8.9740000000000002</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="8">
         <v>34.057000000000002</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="8">
         <v>224.38</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="8">
         <v>3145.61</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="8">
         <v>156.239</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="8">
         <v>3301.8490000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A62" s="14">
         <v>1998</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="8">
         <v>3457.4160000000002</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="8">
         <v>8.7479999999999993</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="8">
         <v>154.13200000000001</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="8">
         <v>3620.2950000000001</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="8">
         <v>39.512999999999998</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="8">
         <v>13.656000000000001</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="8">
         <v>25.856999999999999</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="8">
         <v>221.05600000000001</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="8">
         <v>3264.2310000000002</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="8">
         <v>160.86600000000001</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="8">
         <v>3425.0970000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A63" s="14">
         <v>1999</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="8">
         <v>3529.982</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="8">
         <v>8.5630000000000006</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="8">
         <v>156.26400000000001</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="8">
         <v>3694.81</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="8">
         <v>43.215000000000003</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="8">
         <v>14.222</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="8">
         <v>28.992999999999999</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="8">
         <v>240.08600000000001</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="8">
         <v>3312.087</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="8">
         <v>171.62899999999999</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="8">
         <v>3483.7159999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A64" s="14">
         <v>2000</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="8">
         <v>3637.529</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="8">
         <v>7.9029999999999996</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="8">
         <v>156.673</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="8">
         <v>3802.105</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="8">
         <v>48.591999999999999</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="8">
         <v>14.829000000000001</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="8">
         <v>33.762999999999998</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="8">
         <v>243.511</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="8">
         <v>3421.4140000000002</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="8">
         <v>170.94300000000001</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="8">
         <v>3592.357</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A65" s="14">
         <v>2001</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="8">
         <v>3580.0529999999999</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="8">
         <v>7.4160000000000004</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="8">
         <v>149.17500000000001</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="8">
         <v>3736.6439999999998</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="8">
         <v>38.5</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="8">
         <v>16.472999999999999</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="8">
         <v>22.027000000000001</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="8">
         <v>201.56399999999999</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="8">
         <v>3394.4580000000001</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="8">
         <v>162.649</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="8">
         <v>3557.107</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A66" s="14">
         <v>2002</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="8">
         <v>3698.4580000000001</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="8">
         <v>7.415</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="8">
         <v>152.58000000000001</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="8">
         <v>3858.4520000000002</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="8">
         <v>36.779000000000003</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="8">
         <v>15.795999999999999</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="8">
         <v>20.983000000000001</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="8">
         <v>247.785</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="8">
         <v>3465.4659999999999</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="8">
         <v>166.184</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="8">
         <v>3631.65</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A67" s="14">
         <v>2003</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="8">
         <v>3721.1590000000001</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="8">
         <v>7.4960000000000004</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="8">
         <v>154.53</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="8">
         <v>3883.1849999999999</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="8">
         <v>30.395</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="8">
         <v>23.975000000000001</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="8">
         <v>6.42</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="8">
         <v>227.57599999999999</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="8">
         <v>3493.7339999999999</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="8">
         <v>168.29499999999999</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="8">
         <v>3662.029</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A68" s="14">
         <v>2004</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="8">
         <v>3808.36</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="8">
         <v>8.27</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="8">
         <v>153.92500000000001</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="8">
         <v>3970.5549999999998</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="8">
         <v>34.21</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="8">
         <v>22.898</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="8">
         <v>11.311999999999999</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="8">
         <v>265.91800000000001</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="8">
         <v>3547.4789999999998</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="8">
         <v>168.47</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="8">
         <v>3715.9490000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A69" s="14">
         <v>2005</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="8">
         <v>3902.192</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="8">
         <v>8.4920000000000009</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="8">
         <v>144.739</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="8">
         <v>4055.4229999999998</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="8">
         <v>43.929000000000002</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="8">
         <v>19.151</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="8">
         <v>24.777999999999999</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="8">
         <v>269.21699999999998</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="8">
         <v>3660.9690000000001</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="8">
         <v>150.01599999999999</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="8">
         <v>3810.9839999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A70" s="14">
         <v>2006</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="8">
         <v>3908.0770000000002</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="8">
         <v>8.3710000000000004</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="8">
         <v>148.25399999999999</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="8">
         <v>4064.7020000000002</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="8">
         <v>42.691000000000003</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="8">
         <v>24.271000000000001</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="8">
         <v>18.420000000000002</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="8">
         <v>266.27699999999999</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="8">
         <v>3669.9189999999999</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="8">
         <v>146.92699999999999</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="8">
         <v>3816.8449999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A71" s="14">
         <v>2007</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="8">
         <v>4005.3429999999998</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="8">
         <v>8.2729999999999997</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="8">
         <v>143.12799999999999</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="8">
         <v>4156.7449999999999</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="8">
         <v>51.396000000000001</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="8">
         <v>20.143999999999998</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="8">
         <v>31.251999999999999</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="8">
         <v>297.76600000000002</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="8">
         <v>3764.5610000000001</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="8">
         <v>125.67</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="8">
         <v>3890.2310000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A72" s="14">
         <v>2008</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="8">
         <v>3974.3490000000002</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="8">
         <v>7.9260000000000002</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="8">
         <v>137.113</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="8">
         <v>4119.3879999999999</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="8">
         <v>57.018999999999998</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="8">
         <v>24.198</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="8">
         <v>32.820999999999998</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="8">
         <v>286.048</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="8">
         <v>3733.9650000000001</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="8">
         <v>132.197</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="8">
         <v>3866.1610000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A73" s="14">
         <v>2009</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="8">
         <v>3809.837</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="8">
         <v>8.1649999999999991</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="8">
         <v>132.32900000000001</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="8">
         <v>3950.3310000000001</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="8">
         <v>52.191000000000003</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="8">
         <v>18.138000000000002</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="8">
         <v>34.052999999999997</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="8">
         <v>260.64999999999998</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="8">
         <v>3596.7950000000001</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="8">
         <v>126.938</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="8">
         <v>3723.7330000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A74" s="14">
         <v>2010</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="8">
         <v>3972.386</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="8">
         <v>8.5920000000000005</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="8">
         <v>144.08199999999999</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="8">
         <v>4125.0600000000004</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="8">
         <v>45.082999999999998</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="8">
         <v>19.106000000000002</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="8">
         <v>25.977</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="8">
         <v>264.28500000000003</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="8">
         <v>3754.8409999999999</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="8">
         <v>131.91</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="8">
         <v>3886.752</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A75" s="14">
         <v>2011</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="8">
         <v>3948.1860000000001</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="8">
         <v>10.08</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="8">
         <v>141.875</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="8">
         <v>4100.1409999999996</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="8">
         <v>52.3</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="8">
         <v>15.048999999999999</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="8">
         <v>37.250999999999998</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="8">
         <v>254.792</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="8">
         <v>3749.846</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="8">
         <v>132.75399999999999</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="8">
         <v>3882.6</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A76" s="14">
         <v>2012</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="8">
         <v>3890.3580000000002</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="8">
         <v>11.301</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="8">
         <v>146.107</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="8">
         <v>4047.7649999999999</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="8">
         <v>59.256999999999998</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="8">
         <v>11.996</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="8">
         <v>47.261000000000003</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="8">
         <v>262.72000000000003</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="8">
         <v>3694.65</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="8">
         <v>137.65700000000001</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="8">
         <v>3832.306</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A77" s="14">
         <v>2013</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="8">
         <v>3903.7150000000001</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="8">
         <v>12.234</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="8">
         <v>150.01499999999999</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="8">
         <v>4065.9639999999999</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="8">
         <v>69.248999999999995</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="8">
         <v>11.372999999999999</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="8">
         <v>57.875999999999998</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="8">
         <v>255.51</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="8">
         <v>3724.8679999999999</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="8">
         <v>143.46199999999999</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="8">
         <v>3868.33</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A78" s="14">
         <v>2014</v>
       </c>
-      <c r="B78">
-        <v>3937.0030000000002</v>
-      </c>
-      <c r="C78">
+      <c r="B78" s="8">
+        <v>3936.9609999999998</v>
+      </c>
+      <c r="C78" s="8">
         <v>12.52</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="8">
         <v>144.083</v>
       </c>
-      <c r="E78">
-        <v>4093.6060000000002</v>
-      </c>
-      <c r="F78">
+      <c r="E78" s="8">
+        <v>4093.5639999999999</v>
+      </c>
+      <c r="F78" s="8">
         <v>66.510000000000005</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="8">
         <v>13.298</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="8">
         <v>53.212000000000003</v>
       </c>
-      <c r="I78">
-        <v>243.54400000000001</v>
-      </c>
-      <c r="J78">
+      <c r="I78" s="8">
+        <v>243.50200000000001</v>
+      </c>
+      <c r="J78" s="8">
         <v>3764.7</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="8">
         <v>138.57400000000001</v>
       </c>
-      <c r="L78">
+      <c r="L78" s="8">
         <v>3903.2739999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A79" s="14">
         <v>2015</v>
       </c>
-      <c r="B79">
-        <v>3919.2939999999999</v>
-      </c>
-      <c r="C79">
+      <c r="B79" s="8">
+        <v>3920.4070000000002</v>
+      </c>
+      <c r="C79" s="8">
         <v>12.595000000000001</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="8">
         <v>145.71199999999999</v>
       </c>
-      <c r="E79">
-        <v>4077.6010000000001</v>
-      </c>
-      <c r="F79">
+      <c r="E79" s="8">
+        <v>4078.7139999999999</v>
+      </c>
+      <c r="F79" s="8">
         <v>75.77</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="8">
         <v>9.1</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="8">
         <v>66.671000000000006</v>
       </c>
-      <c r="I79">
-        <v>244.11199999999999</v>
-      </c>
-      <c r="J79">
+      <c r="I79" s="8">
+        <v>245.22399999999999</v>
+      </c>
+      <c r="J79" s="8">
         <v>3758.9920000000002</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="8">
         <v>141.16800000000001</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="8">
         <v>3900.16</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A80" s="14">
         <v>2016</v>
       </c>
-      <c r="B80">
-        <v>3918.078</v>
-      </c>
-      <c r="C80">
+      <c r="B80" s="8">
+        <v>3918.9769999999999</v>
+      </c>
+      <c r="C80" s="8">
         <v>12.706</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="8">
         <v>145.88999999999999</v>
       </c>
-      <c r="E80">
-        <v>4076.6750000000002</v>
-      </c>
-      <c r="F80">
+      <c r="E80" s="8">
+        <v>4077.5740000000001</v>
+      </c>
+      <c r="F80" s="8">
         <v>72.715999999999994</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="8">
         <v>6.2140000000000004</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="8">
         <v>66.501999999999995</v>
       </c>
-      <c r="I80">
-        <v>240.87899999999999</v>
-      </c>
-      <c r="J80">
+      <c r="I80" s="8">
+        <v>241.77799999999999</v>
+      </c>
+      <c r="J80" s="8">
         <v>3762.462</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="8">
         <v>139.83699999999999</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="8">
         <v>3902.2979999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A81" s="14">
         <v>2017</v>
       </c>
-      <c r="B81">
-        <v>3877.453</v>
-      </c>
-      <c r="C81">
+      <c r="B81" s="8">
+        <v>3878.625</v>
+      </c>
+      <c r="C81" s="8">
         <v>13.06</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="8">
         <v>143.75800000000001</v>
       </c>
-      <c r="E81">
-        <v>4034.2710000000002</v>
-      </c>
-      <c r="F81">
+      <c r="E81" s="8">
+        <v>4035.4430000000002</v>
+      </c>
+      <c r="F81" s="8">
         <v>65.685000000000002</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="8">
         <v>9.3710000000000004</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="8">
         <v>56.314</v>
       </c>
-      <c r="I81">
-        <v>226.26900000000001</v>
-      </c>
-      <c r="J81">
+      <c r="I81" s="8">
+        <v>227.44200000000001</v>
+      </c>
+      <c r="J81" s="8">
         <v>3723.3560000000002</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="8">
         <v>140.959</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="8">
         <v>3864.3150000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A82" s="14">
         <v>2018</v>
       </c>
-      <c r="B82">
-        <v>4018.1669999999999</v>
-      </c>
-      <c r="C82">
+      <c r="B82" s="8">
+        <v>4020.877</v>
+      </c>
+      <c r="C82" s="8">
         <v>13.311999999999999</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="8">
         <v>146.798</v>
       </c>
-      <c r="E82">
-        <v>4178.277</v>
-      </c>
-      <c r="F82">
+      <c r="E82" s="8">
+        <v>4180.9880000000003</v>
+      </c>
+      <c r="F82" s="8">
         <v>58.261000000000003</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="8">
         <v>13.804</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="8">
         <v>44.456000000000003</v>
       </c>
-      <c r="I82">
-        <v>219.64400000000001</v>
-      </c>
-      <c r="J82">
+      <c r="I82" s="8">
+        <v>222.35499999999999</v>
+      </c>
+      <c r="J82" s="8">
         <v>3859.1849999999999</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="8">
         <v>143.904</v>
       </c>
-      <c r="L82">
+      <c r="L82" s="8">
         <v>4003.0889999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A83" s="14">
         <v>2019</v>
       </c>
-      <c r="B83">
-        <v>3965.6289999999999</v>
-      </c>
-      <c r="C83">
+      <c r="B83" s="8">
+        <v>3968.348</v>
+      </c>
+      <c r="C83" s="8">
         <v>13.689</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="8">
         <v>148.53700000000001</v>
       </c>
-      <c r="E83">
-        <v>4127.8549999999996</v>
-      </c>
-      <c r="F83">
+      <c r="E83" s="8">
+        <v>4130.5739999999996</v>
+      </c>
+      <c r="F83" s="8">
         <v>59.052</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="8">
         <v>20.007999999999999</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="8">
         <v>39.043999999999997</v>
       </c>
-      <c r="I83">
-        <v>212.47900000000001</v>
-      </c>
-      <c r="J83">
+      <c r="I83" s="8">
+        <v>215.19800000000001</v>
+      </c>
+      <c r="J83" s="8">
         <v>3811.15</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="8">
         <v>143.27000000000001</v>
       </c>
-      <c r="L83">
+      <c r="L83" s="8">
         <v>3954.4209999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A84" s="14">
         <v>2020</v>
       </c>
-      <c r="B84">
-        <v>3851.0340000000001</v>
-      </c>
-      <c r="C84">
+      <c r="B84" s="8">
+        <v>3853.6559999999999</v>
+      </c>
+      <c r="C84" s="8">
         <v>13.045999999999999</v>
       </c>
-      <c r="D84">
-        <v>143.05600000000001</v>
-      </c>
-      <c r="E84">
-        <v>4007.1350000000002</v>
-      </c>
-      <c r="F84">
+      <c r="D84" s="8">
+        <v>143.06399999999999</v>
+      </c>
+      <c r="E84" s="8">
+        <v>4009.7669999999998</v>
+      </c>
+      <c r="F84" s="8">
         <v>61.448999999999998</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="8">
         <v>14.135</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="8">
         <v>47.314</v>
       </c>
-      <c r="I84">
-        <v>198.08500000000001</v>
-      </c>
-      <c r="J84">
+      <c r="I84" s="8">
+        <v>200.70400000000001</v>
+      </c>
+      <c r="J84" s="8">
         <v>3717.674</v>
       </c>
-      <c r="K84">
-        <v>138.69</v>
-      </c>
-      <c r="L84">
-        <v>3856.364</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
+      <c r="K84" s="8">
+        <v>138.703</v>
+      </c>
+      <c r="L84" s="8">
+        <v>3856.377</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A85" s="14">
         <v>2021</v>
       </c>
-      <c r="B85">
-        <v>3962.7849999999999</v>
-      </c>
-      <c r="C85">
-        <v>13.148</v>
-      </c>
-      <c r="D85">
-        <v>139.607</v>
-      </c>
-      <c r="E85">
-        <v>4115.54</v>
-      </c>
-      <c r="F85">
+      <c r="B85" s="8">
+        <v>3957.181</v>
+      </c>
+      <c r="C85" s="8">
+        <v>12.768000000000001</v>
+      </c>
+      <c r="D85" s="8">
+        <v>139.75</v>
+      </c>
+      <c r="E85" s="8">
+        <v>4109.6989999999996</v>
+      </c>
+      <c r="F85" s="8">
         <v>53.167000000000002</v>
       </c>
-      <c r="G85">
-        <v>13.840999999999999</v>
-      </c>
-      <c r="H85">
-        <v>39.325000000000003</v>
-      </c>
-      <c r="I85">
-        <v>224.61</v>
-      </c>
-      <c r="J85">
-        <v>3794.5390000000002</v>
-      </c>
-      <c r="K85">
-        <v>135.71600000000001</v>
-      </c>
-      <c r="L85">
-        <v>3930.2550000000001</v>
+      <c r="G85" s="8">
+        <v>13.855</v>
+      </c>
+      <c r="H85" s="8">
+        <v>39.311999999999998</v>
+      </c>
+      <c r="I85" s="8">
+        <v>204.22200000000001</v>
+      </c>
+      <c r="J85" s="8">
+        <v>3805.8739999999998</v>
+      </c>
+      <c r="K85" s="8">
+        <v>138.91499999999999</v>
+      </c>
+      <c r="L85" s="8">
+        <v>3944.7890000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A86" s="14">
+        <v>2022</v>
+      </c>
+      <c r="B86" s="8">
+        <v>4090.28</v>
+      </c>
+      <c r="C86" s="8">
+        <v>12.852</v>
+      </c>
+      <c r="D86" s="8">
+        <v>140.005</v>
+      </c>
+      <c r="E86" s="8">
+        <v>4243.1360000000004</v>
+      </c>
+      <c r="F86" s="8">
+        <v>56.908000000000001</v>
+      </c>
+      <c r="G86" s="8">
+        <v>15.694000000000001</v>
+      </c>
+      <c r="H86" s="8">
+        <v>41.213999999999999</v>
+      </c>
+      <c r="I86" s="8">
+        <v>236.07400000000001</v>
+      </c>
+      <c r="J86" s="8">
+        <v>3909.0529999999999</v>
+      </c>
+      <c r="K86" s="8">
+        <v>139.22300000000001</v>
+      </c>
+      <c r="L86" s="8">
+        <v>4048.2759999999998</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="http://www.eia.gov/totalenergy/data/monthly/dataunits.cfm" xr:uid="{1F9F0B60-66F6-4414-A588-5F90C9C12287}"/>
+    <hyperlink ref="A4" r:id="rId1" display="http://www.eia.gov/totalenergy/data/monthly/dataunits.cfm" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3764,19 +3873,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3787,7 +3896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2000</v>
       </c>
@@ -3804,7 +3913,7 @@
         <v>6.6944071098814603E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2001</v>
       </c>
@@ -3821,7 +3930,7 @@
         <v>5.6301959775455837E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2002</v>
       </c>
@@ -3838,7 +3947,7 @@
         <v>6.69968403047973E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2003</v>
       </c>
@@ -3855,7 +3964,7 @@
         <v>6.1157289973365822E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2004</v>
       </c>
@@ -3872,7 +3981,7 @@
         <v>6.9824806478379145E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2005</v>
       </c>
@@ -3889,7 +3998,7 @@
         <v>6.8991223394440859E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2006</v>
       </c>
@@ -3906,7 +4015,7 @@
         <v>6.8135044422103247E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2007</v>
       </c>
@@ -3923,7 +4032,7 @@
         <v>7.4342197409809851E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2008</v>
       </c>
@@ -3940,7 +4049,7 @@
         <v>7.1973548372324628E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2009</v>
       </c>
@@ -3957,7 +4066,7 @@
         <v>6.8415000431776993E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2010</v>
       </c>
@@ -3974,7 +4083,7 @@
         <v>6.6530543607796436E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2011</v>
       </c>
@@ -3991,7 +4100,7 @@
         <v>6.4533940396931652E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2012</v>
       </c>
@@ -4008,7 +4117,7 @@
         <v>6.7531060123515632E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2013</v>
       </c>
@@ -4025,162 +4134,173 @@
         <v>6.5453036402503759E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2014</v>
       </c>
       <c r="B16" s="5">
         <f>'MER 7.1'!I78</f>
-        <v>243.54400000000001</v>
+        <v>243.50200000000001</v>
       </c>
       <c r="C16" s="5">
         <f>'MER 7.1'!B78</f>
-        <v>3937.0030000000002</v>
+        <v>3936.9609999999998</v>
       </c>
       <c r="D16" s="4">
         <f>B16/C16</f>
-        <v>6.18602525829927E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.1850244389009698E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2015</v>
       </c>
       <c r="B17" s="5">
         <f>'MER 7.1'!I79</f>
-        <v>244.11199999999999</v>
+        <v>245.22399999999999</v>
       </c>
       <c r="C17" s="5">
         <f>'MER 7.1'!B79</f>
-        <v>3919.2939999999999</v>
+        <v>3920.4070000000002</v>
       </c>
       <c r="D17" s="4">
         <f>B17/C17</f>
-        <v>6.2284686986993069E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.2550648440327747E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2016</v>
       </c>
       <c r="B18" s="5">
         <f>'MER 7.1'!I80</f>
-        <v>240.87899999999999</v>
+        <v>241.77799999999999</v>
       </c>
       <c r="C18" s="5">
         <f>'MER 7.1'!B80</f>
-        <v>3918.078</v>
+        <v>3918.9769999999999</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ref="D18:D21" si="2">B18/C18</f>
-        <v>6.1478867955155558E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.1694161512047659E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2017</v>
       </c>
       <c r="B19" s="5">
         <f>'MER 7.1'!I81</f>
-        <v>226.26900000000001</v>
+        <v>227.44200000000001</v>
       </c>
       <c r="C19" s="5">
         <f>'MER 7.1'!B81</f>
-        <v>3877.453</v>
+        <v>3878.625</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" si="2"/>
-        <v>5.8355059365000683E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.8639853040703863E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2018</v>
       </c>
       <c r="B20" s="5">
         <f>'MER 7.1'!I82</f>
-        <v>219.64400000000001</v>
+        <v>222.35499999999999</v>
       </c>
       <c r="C20" s="5">
         <f>'MER 7.1'!B82</f>
-        <v>4018.1669999999999</v>
+        <v>4020.877</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="2"/>
-        <v>5.466273552094774E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.5300124823514867E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2019</v>
       </c>
       <c r="B21" s="5">
         <f>'MER 7.1'!I83</f>
-        <v>212.47900000000001</v>
+        <v>215.19800000000001</v>
       </c>
       <c r="C21" s="5">
         <f>'MER 7.1'!B83</f>
-        <v>3965.6289999999999</v>
+        <v>3968.348</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="2"/>
-        <v>5.3580150841140213E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.4228610998833776E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2020</v>
       </c>
       <c r="B22" s="5">
         <f>'MER 7.1'!I84</f>
-        <v>198.08500000000001</v>
+        <v>200.70400000000001</v>
       </c>
       <c r="C22" s="5">
         <f>'MER 7.1'!B84</f>
-        <v>3851.0340000000001</v>
+        <v>3853.6559999999999</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ref="D22:D23" si="3">B22/C22</f>
-        <v>5.1436834886422714E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.2081452002981067E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2021</v>
       </c>
       <c r="B23" s="5">
         <f>'MER 7.1'!I85</f>
-        <v>224.61</v>
+        <v>204.22200000000001</v>
       </c>
       <c r="C23" s="5">
         <f>'MER 7.1'!B85</f>
-        <v>3962.7849999999999</v>
+        <v>3957.181</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="3"/>
-        <v>5.667983501502101E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.160795020495651E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="5">
+        <f>'MER 7.1'!I86</f>
+        <v>236.07400000000001</v>
+      </c>
+      <c r="C24" s="5">
+        <f>'MER 7.1'!B86</f>
+        <v>4090.28</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" ref="D24" si="4">B24/C24</f>
+        <v>5.7715853193424413E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="6">
-        <f>AVERAGE(D2:D23)</f>
-        <v>6.3521317515713147E-2</v>
+        <f>AVERAGE(D2:D24)</f>
+        <v>6.3165193947731083E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4197,17 +4317,17 @@
   </sheetPr>
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -4320,153 +4440,153 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="4">
         <f>Calculations!D28</f>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="C2" s="4">
         <f>$B2</f>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:AK2" si="0">$B2</f>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="H2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="I2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="J2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="K2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="N2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="O2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="P2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="Q2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="R2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="S2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="T2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="U2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="V2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="W2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="X2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="Y2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="Z2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="AA2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="AB2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="AC2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="AD2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="AE2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="AF2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="AH2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="AI2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="AJ2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
       <c r="AK2" s="4">
         <f t="shared" si="0"/>
-        <v>6.3521317515713147E-2</v>
+        <v>6.3165193947731083E-2</v>
       </c>
     </row>
   </sheetData>
